--- a/pin-assignments.xlsx
+++ b/pin-assignments.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pwillis\Documents\GitHub\nixie-clock-ice\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\willi\Nextcloud\Documents\Projects\nixieclock\nixie-clock-ice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B666310-9947-46ED-B6AF-3F9BF4690A00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F08D2F7-D1AE-4C4A-991E-60D0769C94C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{61DDA8EF-D3AB-45D9-ADB5-848A3329CB87}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{61DDA8EF-D3AB-45D9-ADB5-848A3329CB87}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -725,16 +725,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -742,6 +741,20 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="5">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
@@ -778,20 +791,6 @@
         <horizontal/>
       </border>
     </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -809,14 +808,14 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B8DDC3D1-B6B2-4773-BAE3-53756E759D9B}" name="Table1" displayName="Table1" ref="A1:J81" totalsRowShown="0">
   <autoFilter ref="A1:J81" xr:uid="{B8DDC3D1-B6B2-4773-BAE3-53756E759D9B}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{973649EE-E7D7-444A-B6E8-0C168ED11786}" name="pico iCE pin" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{973649EE-E7D7-444A-B6E8-0C168ED11786}" name="pico iCE pin" dataDxfId="4"/>
     <tableColumn id="2" xr3:uid="{F5653507-11B6-4725-89A0-0D52D7FE48D4}" name="iCE 40 pin"/>
     <tableColumn id="3" xr3:uid="{62EAA3B7-CDFA-4331-AA91-B5A19A4C9C69}" name="iCE 40 config"/>
     <tableColumn id="4" xr3:uid="{EE7FDF9B-97D2-4ADF-9BB7-2B25579CE898}" name="iCE 40 bank"/>
-    <tableColumn id="5" xr3:uid="{65394EF3-41D0-4EA1-B6F6-F3D44BD72055}" name="iCE 40 ID" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{65394EF3-41D0-4EA1-B6F6-F3D44BD72055}" name="iCE 40 ID" dataDxfId="3"/>
     <tableColumn id="6" xr3:uid="{CEFAB0DD-E9AA-433F-8309-BC2DA89CD8A4}" name="RP2040 pin"/>
     <tableColumn id="11" xr3:uid="{0788CCF3-2736-4162-BDED-CC62F0E680D7}" name="RP2040 ID"/>
-    <tableColumn id="8" xr3:uid="{2D3BF530-0CE5-4C3C-A254-B6F38E7E69AF}" name="RP2040 config" dataDxfId="0"/>
+    <tableColumn id="8" xr3:uid="{2D3BF530-0CE5-4C3C-A254-B6F38E7E69AF}" name="RP2040 config" dataDxfId="2"/>
     <tableColumn id="9" xr3:uid="{8B749DA2-6FA0-44A0-9521-2C507833EE62}" name="net"/>
     <tableColumn id="10" xr3:uid="{AB262432-1C8B-4560-A17E-3D18C1343AA3}" name="description"/>
   </tableColumns>
@@ -825,9 +824,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -865,7 +864,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -971,7 +970,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1113,7 +1112,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1123,27 +1122,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{048455D2-8E6B-4BC7-A693-16ADCA598B53}">
   <dimension ref="A1:J81"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="12.6328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.62890625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.15625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5234375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.734375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="28" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.54296875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="32.90625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7265625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.08984375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="115.26953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.5234375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="32.89453125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.734375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.1015625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="115.26171875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -1155,2575 +1154,2567 @@
       <c r="D1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A2" s="4">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2">
         <v>12</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" t="s">
         <v>64</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2">
         <v>1</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J2" s="2" t="s">
+      <c r="F2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J2" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A3" s="4">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3">
         <v>8</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3">
         <v>1</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3">
         <v>39</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" t="s">
         <v>79</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="I3" t="s">
         <v>77</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="J3" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A4" s="4">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4">
         <v>13</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" t="s">
         <v>64</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4">
         <v>1</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J4" s="2" t="s">
+      <c r="F4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J4" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A5" s="4">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" t="s">
         <v>111</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D5" s="2" t="s">
+      <c r="C5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D5" t="s">
         <v>106</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" t="s">
         <v>110</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G5" t="s">
         <v>109</v>
       </c>
-      <c r="H5" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="I5" s="2" t="s">
+      <c r="H5" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="I5" t="s">
         <v>108</v>
       </c>
-      <c r="J5" s="2" t="s">
+      <c r="J5" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A6" s="4">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="3">
         <v>5</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" t="s">
         <v>105</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D6" s="2" t="s">
+      <c r="C6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D6" t="s">
         <v>106</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" t="s">
         <v>102</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="G6" t="s">
         <v>103</v>
       </c>
-      <c r="H6" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="I6" s="7" t="s">
+      <c r="H6" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="I6" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="J6" s="2" t="s">
+      <c r="J6" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A7" s="4">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="3">
         <v>6</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" t="s">
         <v>105</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D7" s="2" t="s">
+      <c r="C7" t="s">
+        <v>62</v>
+      </c>
+      <c r="D7" t="s">
         <v>106</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" t="s">
         <v>102</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="G7" t="s">
         <v>103</v>
       </c>
-      <c r="H7" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="I7" s="7" t="s">
+      <c r="H7" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="I7" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="J7" s="2" t="s">
+      <c r="J7" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A8" s="4">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="3">
         <v>7</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" t="s">
         <v>111</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D8" s="2" t="s">
+      <c r="C8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D8" t="s">
         <v>106</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="F8" t="s">
         <v>110</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="G8" t="s">
         <v>109</v>
       </c>
-      <c r="H8" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="I8" s="2" t="s">
+      <c r="H8" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="I8" t="s">
         <v>108</v>
       </c>
-      <c r="J8" s="2" t="s">
+      <c r="J8" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A9" s="4">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="3">
         <v>8</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" t="s">
         <v>111</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D9" s="2" t="s">
+      <c r="C9" t="s">
+        <v>62</v>
+      </c>
+      <c r="D9" t="s">
         <v>106</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="F9" t="s">
         <v>110</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="G9" t="s">
         <v>109</v>
       </c>
-      <c r="H9" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="I9" s="2" t="s">
+      <c r="H9" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="I9" t="s">
         <v>108</v>
       </c>
-      <c r="J9" s="2" t="s">
+      <c r="J9" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A10" s="4">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="3">
         <v>9</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10">
         <v>28</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10">
         <v>0</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E10" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F10" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="I10" s="2" t="s">
+      <c r="F10" t="s">
+        <v>26</v>
+      </c>
+      <c r="G10" t="s">
+        <v>26</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I10" t="s">
         <v>10</v>
       </c>
-      <c r="J10" s="2" t="s">
+      <c r="J10" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A11" s="4">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="3">
         <v>10</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11">
         <v>31</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11">
         <v>0</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E11" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F11" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="I11" s="2" t="s">
+      <c r="F11" t="s">
+        <v>26</v>
+      </c>
+      <c r="G11" t="s">
+        <v>26</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I11" t="s">
         <v>15</v>
       </c>
-      <c r="J11" s="2" t="s">
+      <c r="J11" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A12" s="4">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="3">
         <v>11</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12">
         <v>32</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12">
         <v>0</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E12" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F12" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="I12" s="2" t="s">
+      <c r="F12" t="s">
+        <v>26</v>
+      </c>
+      <c r="G12" t="s">
+        <v>26</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I12" t="s">
         <v>16</v>
       </c>
-      <c r="J12" s="2" t="s">
+      <c r="J12" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A13" s="4">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="3">
         <v>12</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13">
         <v>34</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13">
         <v>0</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="E13" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F13" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H13" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="I13" s="2" t="s">
+      <c r="F13" t="s">
+        <v>26</v>
+      </c>
+      <c r="G13" t="s">
+        <v>26</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I13" t="s">
         <v>17</v>
       </c>
-      <c r="J13" s="2" t="s">
+      <c r="J13" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A14" s="4">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="3">
         <v>13</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14">
         <v>36</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" t="s">
         <v>11</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14">
         <v>0</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="E14" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F14" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H14" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="I14" s="2" t="s">
+      <c r="F14" t="s">
+        <v>26</v>
+      </c>
+      <c r="G14" t="s">
+        <v>26</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I14" t="s">
         <v>18</v>
       </c>
-      <c r="J14" s="2" t="s">
+      <c r="J14" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A15" s="4">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="3">
         <v>14</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B15">
         <v>38</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" t="s">
         <v>27</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D15">
         <v>0</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="E15" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="F15" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H15" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="I15" s="2" t="s">
+      <c r="F15" t="s">
+        <v>26</v>
+      </c>
+      <c r="G15" t="s">
+        <v>26</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I15" t="s">
         <v>52</v>
       </c>
-      <c r="J15" s="2" t="s">
+      <c r="J15" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A16" s="4">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="3">
         <v>15</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B16">
         <v>42</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" t="s">
         <v>11</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D16">
         <v>0</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="E16" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F16" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H16" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="I16" s="2" t="s">
+      <c r="F16" t="s">
+        <v>26</v>
+      </c>
+      <c r="G16" t="s">
+        <v>26</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I16" t="s">
         <v>19</v>
       </c>
-      <c r="J16" s="2" t="s">
+      <c r="J16" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A17" s="4">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="3">
         <v>16</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B17">
         <v>43</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" t="s">
         <v>11</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D17">
         <v>0</v>
       </c>
-      <c r="E17" s="4" t="s">
+      <c r="E17" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F17" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H17" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="I17" s="2" t="s">
+      <c r="F17" t="s">
+        <v>26</v>
+      </c>
+      <c r="G17" t="s">
+        <v>26</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I17" t="s">
         <v>20</v>
       </c>
-      <c r="J17" s="2" t="s">
+      <c r="J17" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A18" s="4">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="3">
         <v>17</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B18">
         <v>37</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" t="s">
         <v>58</v>
       </c>
-      <c r="D18" s="2">
+      <c r="D18">
         <v>0</v>
       </c>
-      <c r="E18" s="4" t="s">
+      <c r="E18" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="F18" s="2">
+      <c r="F18">
         <v>17</v>
       </c>
-      <c r="G18" s="2" t="s">
+      <c r="G18" t="s">
         <v>56</v>
       </c>
-      <c r="H18" s="4" t="s">
+      <c r="H18" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="I18" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J18" s="2" t="s">
+      <c r="I18" t="s">
+        <v>26</v>
+      </c>
+      <c r="J18" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A19" s="4">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="3">
         <v>18</v>
       </c>
-      <c r="B19" s="2">
+      <c r="B19">
         <v>35</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" t="s">
         <v>47</v>
       </c>
-      <c r="D19" s="2">
+      <c r="D19">
         <v>0</v>
       </c>
-      <c r="E19" s="4" t="s">
+      <c r="E19" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="F19" s="2">
+      <c r="F19">
         <v>24</v>
       </c>
-      <c r="G19" s="2" t="s">
+      <c r="G19" t="s">
         <v>60</v>
       </c>
-      <c r="H19" s="4" t="s">
+      <c r="H19" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="I19" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J19" s="2" t="s">
+      <c r="I19" t="s">
+        <v>26</v>
+      </c>
+      <c r="J19" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A20" s="4">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="3">
         <v>19</v>
       </c>
-      <c r="B20" s="2">
+      <c r="B20">
         <v>11</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" t="s">
         <v>27</v>
       </c>
-      <c r="D20" s="2">
+      <c r="D20">
         <v>1</v>
       </c>
-      <c r="E20" s="4" t="s">
+      <c r="E20" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="F20" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H20" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="I20" s="2" t="s">
+      <c r="F20" t="s">
+        <v>26</v>
+      </c>
+      <c r="G20" t="s">
+        <v>26</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I20" t="s">
         <v>142</v>
       </c>
-      <c r="J20" s="2" t="s">
+      <c r="J20" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A21" s="4">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="3">
         <v>20</v>
       </c>
-      <c r="B21" s="2">
+      <c r="B21">
         <v>6</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" t="s">
         <v>27</v>
       </c>
-      <c r="D21" s="2">
+      <c r="D21">
         <v>1</v>
       </c>
-      <c r="E21" s="4" t="s">
+      <c r="E21" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="F21" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H21" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="I21" s="2" t="s">
+      <c r="F21" t="s">
+        <v>26</v>
+      </c>
+      <c r="G21" t="s">
+        <v>26</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I21" t="s">
         <v>134</v>
       </c>
-      <c r="J21" s="2" t="s">
+      <c r="J21" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A22" s="4">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="3">
         <v>21</v>
       </c>
-      <c r="B22" s="2">
+      <c r="B22">
         <v>10</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C22" t="s">
         <v>11</v>
       </c>
-      <c r="D22" s="2">
+      <c r="D22">
         <v>1</v>
       </c>
-      <c r="E22" s="4" t="s">
+      <c r="E22" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="F22" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H22" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="I22" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J22" s="2" t="s">
+      <c r="F22" t="s">
+        <v>26</v>
+      </c>
+      <c r="G22" t="s">
+        <v>26</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I22" t="s">
+        <v>26</v>
+      </c>
+      <c r="J22" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A23" s="4">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="3">
         <v>22</v>
       </c>
-      <c r="B23" s="2">
+      <c r="B23">
         <v>9</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C23" t="s">
         <v>11</v>
       </c>
-      <c r="D23" s="2">
+      <c r="D23">
         <v>1</v>
       </c>
-      <c r="E23" s="4" t="s">
+      <c r="E23" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="F23" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H23" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="I23" s="2" t="s">
+      <c r="F23" t="s">
+        <v>26</v>
+      </c>
+      <c r="G23" t="s">
+        <v>26</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I23" t="s">
         <v>137</v>
       </c>
-      <c r="J23" s="2" t="s">
+      <c r="J23" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A24" s="4">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="3">
         <v>23</v>
       </c>
-      <c r="B24" s="2">
+      <c r="B24">
         <v>1</v>
       </c>
-      <c r="C24" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D24" s="2">
+      <c r="C24" t="s">
+        <v>62</v>
+      </c>
+      <c r="D24">
         <v>2</v>
       </c>
-      <c r="E24" s="4" t="s">
+      <c r="E24" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="F24" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H24" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="I24" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J24" s="2" t="s">
+      <c r="F24" t="s">
+        <v>26</v>
+      </c>
+      <c r="G24" t="s">
+        <v>26</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I24" t="s">
+        <v>26</v>
+      </c>
+      <c r="J24" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A25" s="4">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="3">
         <v>24</v>
       </c>
-      <c r="B25" s="2">
+      <c r="B25">
         <v>1</v>
       </c>
-      <c r="C25" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D25" s="2">
+      <c r="C25" t="s">
+        <v>62</v>
+      </c>
+      <c r="D25">
         <v>2</v>
       </c>
-      <c r="E25" s="4" t="s">
+      <c r="E25" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="F25" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H25" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="I25" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J25" s="2" t="s">
+      <c r="F25" t="s">
+        <v>26</v>
+      </c>
+      <c r="G25" t="s">
+        <v>26</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I25" t="s">
+        <v>26</v>
+      </c>
+      <c r="J25" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A26" s="4">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="3">
         <v>25</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" t="s">
         <v>111</v>
       </c>
-      <c r="C26" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D26" s="2" t="s">
+      <c r="C26" t="s">
+        <v>62</v>
+      </c>
+      <c r="D26" t="s">
         <v>106</v>
       </c>
-      <c r="E26" s="4" t="s">
+      <c r="E26" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="F26" s="2" t="s">
+      <c r="F26" t="s">
         <v>110</v>
       </c>
-      <c r="G26" s="2" t="s">
+      <c r="G26" t="s">
         <v>109</v>
       </c>
-      <c r="H26" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="I26" s="2" t="s">
+      <c r="H26" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="I26" t="s">
         <v>108</v>
       </c>
-      <c r="J26" s="2" t="s">
+      <c r="J26" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A27" s="4">
-        <v>26</v>
-      </c>
-      <c r="B27" s="2" t="s">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" s="3">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
         <v>111</v>
       </c>
-      <c r="C27" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D27" s="2" t="s">
+      <c r="C27" t="s">
+        <v>62</v>
+      </c>
+      <c r="D27" t="s">
         <v>106</v>
       </c>
-      <c r="E27" s="4" t="s">
+      <c r="E27" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="F27" s="2" t="s">
+      <c r="F27" t="s">
         <v>110</v>
       </c>
-      <c r="G27" s="2" t="s">
+      <c r="G27" t="s">
         <v>109</v>
       </c>
-      <c r="H27" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="I27" s="2" t="s">
+      <c r="H27" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="I27" t="s">
         <v>108</v>
       </c>
-      <c r="J27" s="2" t="s">
+      <c r="J27" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A28" s="4">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" s="3">
         <v>27</v>
       </c>
-      <c r="B28" s="2">
+      <c r="B28">
         <v>44</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="C28" t="s">
         <v>11</v>
       </c>
-      <c r="D28" s="2">
+      <c r="D28">
         <v>2</v>
       </c>
-      <c r="E28" s="4" t="s">
+      <c r="E28" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F28" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G28" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H28" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="I28" s="2" t="s">
+      <c r="F28" t="s">
+        <v>26</v>
+      </c>
+      <c r="G28" t="s">
+        <v>26</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I28" t="s">
         <v>31</v>
       </c>
-      <c r="J28" s="2" t="s">
+      <c r="J28" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="4">
+    <row r="29" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" s="3">
         <v>28</v>
       </c>
-      <c r="B29" s="2">
+      <c r="B29">
         <v>45</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="C29" t="s">
         <v>11</v>
       </c>
-      <c r="D29" s="2">
+      <c r="D29">
         <v>2</v>
       </c>
-      <c r="E29" s="4" t="s">
+      <c r="E29" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F29" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G29" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H29" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="I29" s="2" t="s">
+      <c r="F29" t="s">
+        <v>26</v>
+      </c>
+      <c r="G29" t="s">
+        <v>26</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I29" t="s">
         <v>32</v>
       </c>
-      <c r="J29" s="8" t="s">
+      <c r="J29" s="7" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A30" s="4">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" s="3">
         <v>29</v>
       </c>
-      <c r="B30" s="2">
+      <c r="B30">
         <v>46</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="C30" t="s">
         <v>11</v>
       </c>
-      <c r="D30" s="2">
+      <c r="D30">
         <v>2</v>
       </c>
-      <c r="E30" s="4" t="s">
+      <c r="E30" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="F30" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G30" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H30" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="I30" s="2" t="s">
+      <c r="F30" t="s">
+        <v>26</v>
+      </c>
+      <c r="G30" t="s">
+        <v>26</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I30" t="s">
         <v>33</v>
       </c>
-      <c r="J30" s="2" t="s">
+      <c r="J30" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A31" s="4">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31" s="3">
         <v>30</v>
       </c>
-      <c r="B31" s="2">
+      <c r="B31">
         <v>47</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="C31" t="s">
         <v>11</v>
       </c>
-      <c r="D31" s="2">
+      <c r="D31">
         <v>2</v>
       </c>
-      <c r="E31" s="4" t="s">
+      <c r="E31" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="F31" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G31" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H31" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="I31" s="2" t="s">
+      <c r="F31" t="s">
+        <v>26</v>
+      </c>
+      <c r="G31" t="s">
+        <v>26</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I31" t="s">
         <v>34</v>
       </c>
-      <c r="J31" s="2" t="s">
+      <c r="J31" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A32" s="4">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32" s="3">
         <v>31</v>
       </c>
-      <c r="B32" s="2">
+      <c r="B32">
         <v>48</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="C32" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="2">
+      <c r="D32">
         <v>2</v>
       </c>
-      <c r="E32" s="4" t="s">
+      <c r="E32" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F32" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G32" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H32" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="I32" s="2" t="s">
+      <c r="F32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G32" t="s">
+        <v>26</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I32" t="s">
         <v>35</v>
       </c>
-      <c r="J32" s="2" t="s">
+      <c r="J32" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A33" s="4">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33" s="3">
         <v>32</v>
       </c>
-      <c r="B33" s="2">
+      <c r="B33">
         <v>2</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="C33" t="s">
         <v>11</v>
       </c>
-      <c r="D33" s="2">
+      <c r="D33">
         <v>2</v>
       </c>
-      <c r="E33" s="4" t="s">
+      <c r="E33" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="F33" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G33" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H33" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="I33" s="2" t="s">
+      <c r="F33" t="s">
+        <v>26</v>
+      </c>
+      <c r="G33" t="s">
+        <v>26</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I33" t="s">
         <v>126</v>
       </c>
-      <c r="J33" s="2" t="s">
+      <c r="J33" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A34" s="4">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A34" s="3">
         <v>33</v>
       </c>
-      <c r="B34" s="2">
+      <c r="B34">
         <v>3</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="C34" t="s">
         <v>27</v>
       </c>
-      <c r="D34" s="2">
+      <c r="D34">
         <v>2</v>
       </c>
-      <c r="E34" s="4" t="s">
+      <c r="E34" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="F34" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G34" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H34" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="I34" s="2" t="s">
+      <c r="F34" t="s">
+        <v>26</v>
+      </c>
+      <c r="G34" t="s">
+        <v>26</v>
+      </c>
+      <c r="H34" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I34" t="s">
         <v>128</v>
       </c>
-      <c r="J34" s="2" t="s">
+      <c r="J34" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A35" s="4">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A35" s="3">
         <v>34</v>
       </c>
-      <c r="B35" s="2">
+      <c r="B35">
         <v>4</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="C35" t="s">
         <v>27</v>
       </c>
-      <c r="D35" s="2">
+      <c r="D35">
         <v>2</v>
       </c>
-      <c r="E35" s="4" t="s">
+      <c r="E35" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="F35" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G35" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H35" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="I35" s="2" t="s">
+      <c r="F35" t="s">
+        <v>26</v>
+      </c>
+      <c r="G35" t="s">
+        <v>26</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I35" t="s">
         <v>131</v>
       </c>
-      <c r="J35" s="2" t="s">
+      <c r="J35" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A36" s="4">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A36" s="3">
         <v>35</v>
       </c>
-      <c r="B36" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E36" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F36" s="2">
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>26</v>
+      </c>
+      <c r="D36" t="s">
+        <v>26</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F36">
         <v>25</v>
       </c>
-      <c r="G36" s="2" t="s">
+      <c r="G36" t="s">
         <v>65</v>
       </c>
-      <c r="H36" s="4" t="s">
+      <c r="H36" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="I36" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J36" s="2" t="s">
+      <c r="I36" t="s">
+        <v>26</v>
+      </c>
+      <c r="J36" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A37" s="4">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A37" s="3">
         <v>36</v>
       </c>
-      <c r="B37" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E37" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F37" s="2">
-        <v>26</v>
-      </c>
-      <c r="G37" s="2" t="s">
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>26</v>
+      </c>
+      <c r="D37" t="s">
+        <v>26</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F37">
+        <v>26</v>
+      </c>
+      <c r="G37" t="s">
         <v>66</v>
       </c>
-      <c r="H37" s="4" t="s">
+      <c r="H37" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="I37" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J37" s="2" t="s">
+      <c r="I37" t="s">
+        <v>26</v>
+      </c>
+      <c r="J37" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A38" s="4">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A38" s="3">
         <v>37</v>
       </c>
-      <c r="B38" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E38" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F38" s="2">
+      <c r="B38" t="s">
+        <v>26</v>
+      </c>
+      <c r="C38" t="s">
+        <v>26</v>
+      </c>
+      <c r="D38" t="s">
+        <v>26</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F38">
         <v>25</v>
       </c>
-      <c r="G38" s="2" t="s">
+      <c r="G38" t="s">
         <v>65</v>
       </c>
-      <c r="H38" s="4" t="s">
+      <c r="H38" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="I38" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J38" s="2" t="s">
+      <c r="I38" t="s">
+        <v>26</v>
+      </c>
+      <c r="J38" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A39" s="4">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A39" s="3">
         <v>38</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="B39" t="s">
         <v>111</v>
       </c>
-      <c r="C39" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D39" s="2" t="s">
+      <c r="C39" t="s">
+        <v>62</v>
+      </c>
+      <c r="D39" t="s">
         <v>106</v>
       </c>
-      <c r="E39" s="4" t="s">
+      <c r="E39" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="F39" s="2" t="s">
+      <c r="F39" t="s">
         <v>110</v>
       </c>
-      <c r="G39" s="2" t="s">
+      <c r="G39" t="s">
         <v>109</v>
       </c>
-      <c r="H39" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="I39" s="2" t="s">
+      <c r="H39" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="I39" t="s">
         <v>108</v>
       </c>
-      <c r="J39" s="2" t="s">
+      <c r="J39" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A40" s="4">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A40" s="3">
         <v>39</v>
       </c>
-      <c r="B40" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E40" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F40" s="2">
+      <c r="B40" t="s">
+        <v>26</v>
+      </c>
+      <c r="C40" t="s">
+        <v>26</v>
+      </c>
+      <c r="D40" t="s">
+        <v>26</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F40">
         <v>37</v>
       </c>
-      <c r="G40" s="2" t="s">
+      <c r="G40" t="s">
         <v>68</v>
       </c>
-      <c r="H40" s="4" t="s">
+      <c r="H40" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="I40" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J40" s="2" t="s">
+      <c r="I40" t="s">
+        <v>26</v>
+      </c>
+      <c r="J40" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A41" s="4">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A41" s="3">
         <v>40</v>
       </c>
-      <c r="B41" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E41" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F41" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G41" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H41" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="I41" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J41" s="2" t="s">
+      <c r="B41" t="s">
+        <v>26</v>
+      </c>
+      <c r="C41" t="s">
+        <v>26</v>
+      </c>
+      <c r="D41" t="s">
+        <v>26</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F41" t="s">
+        <v>26</v>
+      </c>
+      <c r="G41" t="s">
+        <v>26</v>
+      </c>
+      <c r="H41" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I41" t="s">
+        <v>26</v>
+      </c>
+      <c r="J41" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A42" s="4">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A42" s="3">
         <v>41</v>
       </c>
-      <c r="B42" s="2">
+      <c r="B42">
         <v>16</v>
       </c>
-      <c r="C42" s="2" t="s">
+      <c r="C42" t="s">
         <v>27</v>
       </c>
-      <c r="D42" s="2">
+      <c r="D42">
         <v>1</v>
       </c>
-      <c r="E42" s="4" t="s">
+      <c r="E42" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="F42" s="2">
+      <c r="F42">
         <v>12</v>
       </c>
-      <c r="G42" s="2" t="s">
+      <c r="G42" t="s">
         <v>85</v>
       </c>
-      <c r="H42" s="4" t="s">
+      <c r="H42" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="I42" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J42" s="2" t="s">
+      <c r="I42" t="s">
+        <v>26</v>
+      </c>
+      <c r="J42" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A43" s="4">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A43" s="3">
         <v>42</v>
       </c>
-      <c r="B43" s="2">
+      <c r="B43">
         <v>14</v>
       </c>
-      <c r="C43" s="2" t="s">
+      <c r="C43" t="s">
         <v>64</v>
       </c>
-      <c r="D43" s="2">
+      <c r="D43">
         <v>1</v>
       </c>
-      <c r="E43" s="4" t="s">
+      <c r="E43" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="F43" s="2">
+      <c r="F43">
         <v>11</v>
       </c>
-      <c r="G43" s="2" t="s">
+      <c r="G43" t="s">
         <v>86</v>
       </c>
-      <c r="H43" s="4" t="s">
+      <c r="H43" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="I43" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J43" s="2" t="s">
+      <c r="I43" t="s">
+        <v>26</v>
+      </c>
+      <c r="J43" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A44" s="4">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A44" s="3">
         <v>43</v>
       </c>
-      <c r="B44" s="2">
+      <c r="B44">
         <v>17</v>
       </c>
-      <c r="C44" s="2" t="s">
+      <c r="C44" t="s">
         <v>11</v>
       </c>
-      <c r="D44" s="2">
+      <c r="D44">
         <v>1</v>
       </c>
-      <c r="E44" s="4" t="s">
+      <c r="E44" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="F44" s="2">
+      <c r="F44">
         <v>14</v>
       </c>
-      <c r="G44" s="2" t="s">
+      <c r="G44" t="s">
         <v>87</v>
       </c>
-      <c r="H44" s="4" t="s">
+      <c r="H44" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="I44" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J44" s="2" t="s">
+      <c r="I44" t="s">
+        <v>26</v>
+      </c>
+      <c r="J44" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A45" s="4">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A45" s="3">
         <v>44</v>
       </c>
-      <c r="B45" s="2">
+      <c r="B45">
         <v>15</v>
       </c>
-      <c r="C45" s="2" t="s">
+      <c r="C45" t="s">
         <v>64</v>
       </c>
-      <c r="D45" s="2">
+      <c r="D45">
         <v>1</v>
       </c>
-      <c r="E45" s="4" t="s">
+      <c r="E45" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="F45" s="2">
+      <c r="F45">
         <v>13</v>
       </c>
-      <c r="G45" s="2" t="s">
+      <c r="G45" t="s">
         <v>88</v>
       </c>
-      <c r="H45" s="4" t="s">
+      <c r="H45" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="I45" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J45" s="2" t="s">
+      <c r="I45" t="s">
+        <v>26</v>
+      </c>
+      <c r="J45" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A46" s="4">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A46" s="3">
         <v>45</v>
       </c>
-      <c r="B46" s="2">
+      <c r="B46">
         <v>25</v>
       </c>
-      <c r="C46" s="2" t="s">
+      <c r="C46" t="s">
         <v>27</v>
       </c>
-      <c r="D46" s="2">
+      <c r="D46">
         <v>0</v>
       </c>
-      <c r="E46" s="4" t="s">
+      <c r="E46" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="F46" s="2">
+      <c r="F46">
         <v>3</v>
       </c>
-      <c r="G46" s="2" t="s">
+      <c r="G46" t="s">
         <v>159</v>
       </c>
-      <c r="H46" s="4" t="s">
+      <c r="H46" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="I46" s="7" t="s">
+      <c r="I46" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="J46" s="2" t="s">
+      <c r="J46" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A47" s="4">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A47" s="3">
         <v>46</v>
       </c>
-      <c r="B47" s="2">
+      <c r="B47">
         <v>23</v>
       </c>
-      <c r="C47" s="2" t="s">
+      <c r="C47" t="s">
         <v>57</v>
       </c>
-      <c r="D47" s="2">
+      <c r="D47">
         <v>0</v>
       </c>
-      <c r="E47" s="4" t="s">
+      <c r="E47" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="F47" s="2">
+      <c r="F47">
         <v>7</v>
       </c>
-      <c r="G47" s="2" t="s">
+      <c r="G47" t="s">
         <v>164</v>
       </c>
-      <c r="H47" s="4" t="s">
+      <c r="H47" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="I47" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J47" s="2" t="s">
+      <c r="I47" t="s">
+        <v>26</v>
+      </c>
+      <c r="J47" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A48" s="4">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A48" s="3">
         <v>47</v>
       </c>
-      <c r="B48" s="2">
+      <c r="B48">
         <v>19</v>
       </c>
-      <c r="C48" s="2" t="s">
+      <c r="C48" t="s">
         <v>27</v>
       </c>
-      <c r="D48" s="2">
+      <c r="D48">
         <v>1</v>
       </c>
-      <c r="E48" s="4" t="s">
+      <c r="E48" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="F48" s="2">
+      <c r="F48">
         <v>5</v>
       </c>
-      <c r="G48" s="2" t="s">
+      <c r="G48" t="s">
         <v>151</v>
       </c>
-      <c r="H48" s="4" t="s">
+      <c r="H48" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="I48" s="2" t="s">
+      <c r="I48" t="s">
         <v>149</v>
       </c>
-      <c r="J48" s="2" t="s">
+      <c r="J48" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A49" s="4">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A49" s="3">
         <v>48</v>
       </c>
-      <c r="B49" s="2">
+      <c r="B49">
         <v>18</v>
       </c>
-      <c r="C49" s="2" t="s">
+      <c r="C49" t="s">
         <v>27</v>
       </c>
-      <c r="D49" s="2">
+      <c r="D49">
         <v>1</v>
       </c>
-      <c r="E49" s="4" t="s">
+      <c r="E49" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="F49" s="2">
+      <c r="F49">
         <v>9</v>
       </c>
-      <c r="G49" s="2" t="s">
+      <c r="G49" t="s">
         <v>147</v>
       </c>
-      <c r="H49" s="4" t="s">
+      <c r="H49" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="I49" s="2" t="s">
+      <c r="I49" t="s">
         <v>145</v>
       </c>
-      <c r="J49" s="2" t="s">
+      <c r="J49" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A50" s="4">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A50" s="3">
         <v>49</v>
       </c>
-      <c r="B50" s="2">
+      <c r="B50">
         <v>27</v>
       </c>
-      <c r="C50" s="2" t="s">
+      <c r="C50" t="s">
         <v>64</v>
       </c>
-      <c r="D50" s="2">
+      <c r="D50">
         <v>0</v>
       </c>
-      <c r="E50" s="4" t="s">
+      <c r="E50" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="F50" s="2">
+      <c r="F50">
         <v>2</v>
       </c>
-      <c r="G50" s="2" t="s">
+      <c r="G50" t="s">
         <v>76</v>
       </c>
-      <c r="H50" s="4" t="s">
+      <c r="H50" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="I50" s="2" t="s">
+      <c r="I50" t="s">
         <v>166</v>
       </c>
-      <c r="J50" s="2" t="s">
+      <c r="J50" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A51" s="4">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A51" s="3">
         <v>50</v>
       </c>
-      <c r="B51" s="2">
-        <v>26</v>
-      </c>
-      <c r="C51" s="2" t="s">
+      <c r="B51">
+        <v>26</v>
+      </c>
+      <c r="C51" t="s">
         <v>57</v>
       </c>
-      <c r="D51" s="2">
+      <c r="D51">
         <v>0</v>
       </c>
-      <c r="E51" s="4" t="s">
+      <c r="E51" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="F51" s="2">
+      <c r="F51">
         <v>6</v>
       </c>
-      <c r="G51" s="2" t="s">
+      <c r="G51" t="s">
         <v>173</v>
       </c>
-      <c r="H51" s="4" t="s">
+      <c r="H51" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="I51" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J51" s="2" t="s">
+      <c r="I51" t="s">
+        <v>26</v>
+      </c>
+      <c r="J51" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A52" s="4">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A52" s="3">
         <v>51</v>
       </c>
-      <c r="B52" s="2">
+      <c r="B52">
         <v>21</v>
       </c>
-      <c r="C52" s="2" t="s">
+      <c r="C52" t="s">
         <v>57</v>
       </c>
-      <c r="D52" s="2">
+      <c r="D52">
         <v>1</v>
       </c>
-      <c r="E52" s="4" t="s">
+      <c r="E52" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="F52" s="2">
+      <c r="F52">
         <v>4</v>
       </c>
-      <c r="G52" s="2" t="s">
+      <c r="G52" t="s">
         <v>171</v>
       </c>
-      <c r="H52" s="4" t="s">
+      <c r="H52" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="I52" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J52" s="2" t="s">
+      <c r="I52" t="s">
+        <v>26</v>
+      </c>
+      <c r="J52" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A53" s="4">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A53" s="3">
         <v>52</v>
       </c>
-      <c r="B53" s="2">
+      <c r="B53">
         <v>20</v>
       </c>
-      <c r="C53" s="2" t="s">
+      <c r="C53" t="s">
         <v>157</v>
       </c>
-      <c r="D53" s="2">
+      <c r="D53">
         <v>1</v>
       </c>
-      <c r="E53" s="4" t="s">
+      <c r="E53" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="F53" s="2">
+      <c r="F53">
         <v>8</v>
       </c>
-      <c r="G53" s="2" t="s">
+      <c r="G53" t="s">
         <v>156</v>
       </c>
-      <c r="H53" s="4" t="s">
+      <c r="H53" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="I53" s="2" t="s">
+      <c r="I53" t="s">
         <v>153</v>
       </c>
-      <c r="J53" s="2" t="s">
+      <c r="J53" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A54" s="4">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A54" s="3">
         <v>53</v>
       </c>
-      <c r="B54" s="2" t="s">
+      <c r="B54" t="s">
         <v>111</v>
       </c>
-      <c r="C54" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D54" s="2" t="s">
+      <c r="C54" t="s">
+        <v>62</v>
+      </c>
+      <c r="D54" t="s">
         <v>106</v>
       </c>
-      <c r="E54" s="4" t="s">
+      <c r="E54" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="F54" s="2" t="s">
+      <c r="F54" t="s">
         <v>110</v>
       </c>
-      <c r="G54" s="2" t="s">
+      <c r="G54" t="s">
         <v>109</v>
       </c>
-      <c r="H54" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="I54" s="2" t="s">
+      <c r="H54" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="I54" t="s">
         <v>108</v>
       </c>
-      <c r="J54" s="2" t="s">
+      <c r="J54" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A55" s="4">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A55" s="3">
         <v>54</v>
       </c>
-      <c r="B55" s="2" t="s">
+      <c r="B55" t="s">
         <v>111</v>
       </c>
-      <c r="C55" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D55" s="2" t="s">
+      <c r="C55" t="s">
+        <v>62</v>
+      </c>
+      <c r="D55" t="s">
         <v>106</v>
       </c>
-      <c r="E55" s="4" t="s">
+      <c r="E55" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="F55" s="2" t="s">
+      <c r="F55" t="s">
         <v>110</v>
       </c>
-      <c r="G55" s="2" t="s">
+      <c r="G55" t="s">
         <v>109</v>
       </c>
-      <c r="H55" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="I55" s="2" t="s">
+      <c r="H55" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="I55" t="s">
         <v>108</v>
       </c>
-      <c r="J55" s="2" t="s">
+      <c r="J55" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A56" s="4">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A56" s="3">
         <v>55</v>
       </c>
-      <c r="B56" s="2" t="s">
+      <c r="B56" t="s">
         <v>105</v>
       </c>
-      <c r="C56" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D56" s="2" t="s">
+      <c r="C56" t="s">
+        <v>62</v>
+      </c>
+      <c r="D56" t="s">
         <v>106</v>
       </c>
-      <c r="E56" s="4" t="s">
+      <c r="E56" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="F56" s="2" t="s">
+      <c r="F56" t="s">
         <v>102</v>
       </c>
-      <c r="G56" s="2" t="s">
+      <c r="G56" t="s">
         <v>103</v>
       </c>
-      <c r="H56" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="I56" s="7" t="s">
+      <c r="H56" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="I56" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="J56" s="2" t="s">
+      <c r="J56" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A57" s="4">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A57" s="3">
         <v>56</v>
       </c>
-      <c r="B57" s="2" t="s">
+      <c r="B57" t="s">
         <v>105</v>
       </c>
-      <c r="C57" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D57" s="2" t="s">
+      <c r="C57" t="s">
+        <v>62</v>
+      </c>
+      <c r="D57" t="s">
         <v>106</v>
       </c>
-      <c r="E57" s="4" t="s">
+      <c r="E57" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="F57" s="2" t="s">
+      <c r="F57" t="s">
         <v>102</v>
       </c>
-      <c r="G57" s="2" t="s">
+      <c r="G57" t="s">
         <v>103</v>
       </c>
-      <c r="H57" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="I57" s="7" t="s">
+      <c r="H57" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="I57" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="J57" s="2" t="s">
+      <c r="J57" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A58" s="4">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A58" s="3">
         <v>57</v>
       </c>
-      <c r="B58" s="2">
+      <c r="B58">
         <v>7</v>
       </c>
-      <c r="C58" s="2" t="s">
+      <c r="C58" t="s">
         <v>27</v>
       </c>
-      <c r="D58" s="2">
+      <c r="D58">
         <v>1</v>
       </c>
-      <c r="E58" s="4" t="s">
+      <c r="E58" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="F58" s="2">
+      <c r="F58">
         <v>38</v>
       </c>
-      <c r="G58" s="2" t="s">
+      <c r="G58" t="s">
         <v>183</v>
       </c>
-      <c r="H58" s="4" t="s">
+      <c r="H58" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="I58" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J58" s="2" t="s">
+      <c r="I58" t="s">
+        <v>26</v>
+      </c>
+      <c r="J58" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A59" s="4">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A59" s="3">
         <v>58</v>
       </c>
-      <c r="B59" s="2">
+      <c r="B59">
         <v>40</v>
       </c>
-      <c r="C59" s="2" t="s">
+      <c r="C59" t="s">
         <v>57</v>
       </c>
-      <c r="D59" s="2">
+      <c r="D59">
         <v>0</v>
       </c>
-      <c r="E59" s="4" t="s">
+      <c r="E59" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="F59" s="2">
+      <c r="F59">
         <v>18</v>
       </c>
-      <c r="G59" s="2" t="s">
+      <c r="G59" t="s">
         <v>113</v>
       </c>
-      <c r="H59" s="4" t="s">
+      <c r="H59" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="I59" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J59" s="2" t="s">
+      <c r="I59" t="s">
+        <v>26</v>
+      </c>
+      <c r="J59" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A60" s="4">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A60" s="3">
         <v>59</v>
       </c>
-      <c r="B60" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E60" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F60" s="2">
+      <c r="B60" t="s">
+        <v>26</v>
+      </c>
+      <c r="C60" t="s">
+        <v>26</v>
+      </c>
+      <c r="D60" t="s">
+        <v>26</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F60">
         <v>40</v>
       </c>
-      <c r="G60" s="2" t="s">
+      <c r="G60" t="s">
         <v>181</v>
       </c>
-      <c r="H60" s="4" t="s">
+      <c r="H60" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="I60" s="2" t="s">
+      <c r="I60" t="s">
         <v>185</v>
       </c>
-      <c r="J60" s="2" t="s">
+      <c r="J60" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A61" s="4">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A61" s="3">
         <v>60</v>
       </c>
-      <c r="B61" s="2">
+      <c r="B61">
         <v>41</v>
       </c>
-      <c r="C61" s="2" t="s">
+      <c r="C61" t="s">
         <v>57</v>
       </c>
-      <c r="D61" s="2">
+      <c r="D61">
         <v>0</v>
       </c>
-      <c r="E61" s="4" t="s">
+      <c r="E61" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="F61" s="2">
+      <c r="F61">
         <v>16</v>
       </c>
-      <c r="G61" s="2" t="s">
+      <c r="G61" t="s">
         <v>114</v>
       </c>
-      <c r="H61" s="4" t="s">
+      <c r="H61" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="I61" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J61" s="2" t="s">
+      <c r="I61" t="s">
+        <v>26</v>
+      </c>
+      <c r="J61" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A62" s="4">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A62" s="3">
         <v>61</v>
       </c>
-      <c r="B62" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E62" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F62" s="2">
+      <c r="B62" t="s">
+        <v>26</v>
+      </c>
+      <c r="C62" t="s">
+        <v>26</v>
+      </c>
+      <c r="D62" t="s">
+        <v>26</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F62">
         <v>41</v>
       </c>
-      <c r="G62" s="2" t="s">
+      <c r="G62" t="s">
         <v>182</v>
       </c>
-      <c r="H62" s="4" t="s">
+      <c r="H62" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="I62" s="2" t="s">
+      <c r="I62" t="s">
         <v>186</v>
       </c>
-      <c r="J62" s="2" t="s">
+      <c r="J62" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A63" s="4">
-        <v>62</v>
-      </c>
-      <c r="B63" s="2">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A63" s="3">
+        <v>62</v>
+      </c>
+      <c r="B63">
         <v>39</v>
       </c>
-      <c r="C63" s="2" t="s">
+      <c r="C63" t="s">
         <v>57</v>
       </c>
-      <c r="D63" s="2">
+      <c r="D63">
         <v>0</v>
       </c>
-      <c r="E63" s="4" t="s">
+      <c r="E63" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="F63" s="2">
+      <c r="F63">
         <v>15</v>
       </c>
-      <c r="G63" s="2" t="s">
+      <c r="G63" t="s">
         <v>115</v>
       </c>
-      <c r="H63" s="4" t="s">
+      <c r="H63" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="I63" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J63" s="2" t="s">
+      <c r="I63" t="s">
+        <v>26</v>
+      </c>
+      <c r="J63" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A64" s="4">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A64" s="3">
         <v>63</v>
       </c>
-      <c r="B64" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E64" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F64" s="2"/>
-      <c r="G64" s="2" t="s">
+      <c r="B64" t="s">
+        <v>26</v>
+      </c>
+      <c r="C64" t="s">
+        <v>26</v>
+      </c>
+      <c r="D64" t="s">
+        <v>26</v>
+      </c>
+      <c r="E64" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G64" t="s">
         <v>190</v>
       </c>
-      <c r="H64" s="4" t="s">
+      <c r="H64" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="I64" s="2" t="s">
+      <c r="I64" t="s">
         <v>196</v>
       </c>
-      <c r="J64" s="2" t="s">
+      <c r="J64" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A65" s="4">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A65" s="3">
         <v>64</v>
       </c>
-      <c r="B65" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E65" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F65" s="2"/>
-      <c r="G65" s="2" t="s">
+      <c r="B65" t="s">
+        <v>26</v>
+      </c>
+      <c r="C65" t="s">
+        <v>26</v>
+      </c>
+      <c r="D65" t="s">
+        <v>26</v>
+      </c>
+      <c r="E65" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G65" t="s">
         <v>191</v>
       </c>
-      <c r="H65" s="4" t="s">
+      <c r="H65" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="I65" s="2" t="s">
+      <c r="I65" t="s">
         <v>194</v>
       </c>
-      <c r="J65" s="2" t="s">
+      <c r="J65" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A66" s="4">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A66" s="3">
         <v>65</v>
       </c>
-      <c r="B66" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E66" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F66" s="2"/>
-      <c r="G66" s="2" t="s">
+      <c r="B66" t="s">
+        <v>26</v>
+      </c>
+      <c r="C66" t="s">
+        <v>26</v>
+      </c>
+      <c r="D66" t="s">
+        <v>26</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G66" t="s">
         <v>192</v>
       </c>
-      <c r="H66" s="4" t="s">
+      <c r="H66" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="I66" s="2" t="s">
+      <c r="I66" t="s">
         <v>193</v>
       </c>
-      <c r="J66" s="2" t="s">
+      <c r="J66" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A67" s="4">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A67" s="3">
         <v>66</v>
       </c>
-      <c r="B67" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E67" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F67" s="2"/>
-      <c r="G67" s="2" t="s">
+      <c r="B67" t="s">
+        <v>26</v>
+      </c>
+      <c r="C67" t="s">
+        <v>26</v>
+      </c>
+      <c r="D67" t="s">
+        <v>26</v>
+      </c>
+      <c r="E67" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G67" t="s">
         <v>189</v>
       </c>
-      <c r="H67" s="4" t="s">
+      <c r="H67" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="I67" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J67" s="2" t="s">
+      <c r="I67" t="s">
+        <v>26</v>
+      </c>
+      <c r="J67" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A68" s="4">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A68" s="3">
         <v>67</v>
       </c>
-      <c r="B68" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E68" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F68" s="2"/>
-      <c r="G68" s="2" t="s">
+      <c r="B68" t="s">
+        <v>26</v>
+      </c>
+      <c r="C68" t="s">
+        <v>26</v>
+      </c>
+      <c r="D68" t="s">
+        <v>26</v>
+      </c>
+      <c r="E68" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G68" t="s">
         <v>197</v>
       </c>
-      <c r="H68" s="4" t="s">
+      <c r="H68" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="I68" s="2" t="s">
+      <c r="I68" t="s">
         <v>198</v>
       </c>
-      <c r="J68" s="2" t="s">
+      <c r="J68" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A69" s="4">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A69" s="3">
         <v>68</v>
       </c>
-      <c r="B69" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E69" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F69" s="2"/>
-      <c r="G69" s="2" t="s">
+      <c r="B69" t="s">
+        <v>26</v>
+      </c>
+      <c r="C69" t="s">
+        <v>26</v>
+      </c>
+      <c r="D69" t="s">
+        <v>26</v>
+      </c>
+      <c r="E69" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G69" t="s">
         <v>199</v>
       </c>
-      <c r="H69" s="4" t="s">
+      <c r="H69" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="I69" s="2" t="s">
+      <c r="I69" t="s">
         <v>200</v>
       </c>
-      <c r="J69" s="2" t="s">
+      <c r="J69" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A70" s="4">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A70" s="3">
         <v>69</v>
       </c>
-      <c r="B70" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E70" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F70" s="2"/>
-      <c r="G70" s="2" t="s">
+      <c r="B70" t="s">
+        <v>26</v>
+      </c>
+      <c r="C70" t="s">
+        <v>26</v>
+      </c>
+      <c r="D70" t="s">
+        <v>26</v>
+      </c>
+      <c r="E70" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G70" t="s">
         <v>189</v>
       </c>
-      <c r="H70" s="4" t="s">
+      <c r="H70" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="I70" s="2" t="s">
+      <c r="I70" t="s">
         <v>201</v>
       </c>
-      <c r="J70" s="2" t="s">
+      <c r="J70" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A71" s="4">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A71" s="3">
         <v>70</v>
       </c>
-      <c r="B71" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E71" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F71" s="2"/>
-      <c r="G71" s="2" t="s">
+      <c r="B71" t="s">
+        <v>26</v>
+      </c>
+      <c r="C71" t="s">
+        <v>26</v>
+      </c>
+      <c r="D71" t="s">
+        <v>26</v>
+      </c>
+      <c r="E71" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G71" t="s">
         <v>202</v>
       </c>
-      <c r="H71" s="4" t="s">
+      <c r="H71" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="I71" s="2" t="s">
+      <c r="I71" t="s">
         <v>203</v>
       </c>
-      <c r="J71" s="2" t="s">
+      <c r="J71" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A72" s="4">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A72" s="3">
         <v>71</v>
       </c>
-      <c r="B72" s="2" t="s">
+      <c r="B72" t="s">
         <v>111</v>
       </c>
-      <c r="C72" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D72" s="2" t="s">
+      <c r="C72" t="s">
+        <v>62</v>
+      </c>
+      <c r="D72" t="s">
         <v>106</v>
       </c>
-      <c r="E72" s="4" t="s">
+      <c r="E72" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="F72" s="2" t="s">
+      <c r="F72" t="s">
         <v>110</v>
       </c>
-      <c r="G72" s="2" t="s">
+      <c r="G72" t="s">
         <v>109</v>
       </c>
-      <c r="H72" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="I72" s="2" t="s">
+      <c r="H72" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="I72" t="s">
         <v>108</v>
       </c>
-      <c r="J72" s="2" t="s">
+      <c r="J72" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A73" s="4">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A73" s="3">
         <v>72</v>
       </c>
-      <c r="B73" s="2" t="s">
+      <c r="B73" t="s">
         <v>111</v>
       </c>
-      <c r="C73" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D73" s="2" t="s">
+      <c r="C73" t="s">
+        <v>62</v>
+      </c>
+      <c r="D73" t="s">
         <v>106</v>
       </c>
-      <c r="E73" s="4" t="s">
+      <c r="E73" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="F73" s="2" t="s">
+      <c r="F73" t="s">
         <v>110</v>
       </c>
-      <c r="G73" s="2" t="s">
+      <c r="G73" t="s">
         <v>109</v>
       </c>
-      <c r="H73" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="I73" s="2" t="s">
+      <c r="H73" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="I73" t="s">
         <v>108</v>
       </c>
-      <c r="J73" s="2" t="s">
+      <c r="J73" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A74" s="4">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A74" s="3">
         <v>73</v>
       </c>
-      <c r="B74" s="2" t="s">
+      <c r="B74" t="s">
         <v>105</v>
       </c>
-      <c r="C74" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D74" s="2" t="s">
+      <c r="C74" t="s">
+        <v>62</v>
+      </c>
+      <c r="D74" t="s">
         <v>106</v>
       </c>
-      <c r="E74" s="4" t="s">
+      <c r="E74" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="F74" s="2" t="s">
+      <c r="F74" t="s">
         <v>102</v>
       </c>
-      <c r="G74" s="2" t="s">
+      <c r="G74" t="s">
         <v>103</v>
       </c>
-      <c r="H74" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="I74" s="7" t="s">
+      <c r="H74" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="I74" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="J74" s="2" t="s">
+      <c r="J74" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A75" s="4">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A75" s="3">
         <v>74</v>
       </c>
-      <c r="B75" s="2" t="s">
+      <c r="B75" t="s">
         <v>105</v>
       </c>
-      <c r="C75" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D75" s="2" t="s">
+      <c r="C75" t="s">
+        <v>62</v>
+      </c>
+      <c r="D75" t="s">
         <v>106</v>
       </c>
-      <c r="E75" s="4" t="s">
+      <c r="E75" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="F75" s="2" t="s">
+      <c r="F75" t="s">
         <v>102</v>
       </c>
-      <c r="G75" s="2" t="s">
+      <c r="G75" t="s">
         <v>103</v>
       </c>
-      <c r="H75" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="I75" s="7" t="s">
+      <c r="H75" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="I75" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="J75" s="2" t="s">
+      <c r="J75" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A76" s="4">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A76" s="3">
         <v>75</v>
       </c>
-      <c r="B76" s="2" t="s">
+      <c r="B76" t="s">
         <v>105</v>
       </c>
-      <c r="C76" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D76" s="2" t="s">
+      <c r="C76" t="s">
+        <v>62</v>
+      </c>
+      <c r="D76" t="s">
         <v>106</v>
       </c>
-      <c r="E76" s="4" t="s">
+      <c r="E76" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="F76" s="2" t="s">
+      <c r="F76" t="s">
         <v>102</v>
       </c>
-      <c r="G76" s="2" t="s">
+      <c r="G76" t="s">
         <v>103</v>
       </c>
-      <c r="H76" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="I76" s="7" t="s">
+      <c r="H76" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="I76" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="J76" s="2" t="s">
+      <c r="J76" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A77" s="4">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A77" s="3">
         <v>76</v>
       </c>
-      <c r="B77" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C77" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D77" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E77" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F77" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G77" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H77" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="I77" s="7" t="s">
+      <c r="B77" t="s">
+        <v>26</v>
+      </c>
+      <c r="C77" t="s">
+        <v>26</v>
+      </c>
+      <c r="D77" t="s">
+        <v>26</v>
+      </c>
+      <c r="E77" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F77" t="s">
+        <v>26</v>
+      </c>
+      <c r="G77" t="s">
+        <v>26</v>
+      </c>
+      <c r="H77" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I77" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="J77" s="2" t="s">
+      <c r="J77" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A78" s="4">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A78" s="3">
         <v>77</v>
       </c>
-      <c r="B78" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C78" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D78" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E78" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F78" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G78" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H78" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="I78" s="7" t="s">
+      <c r="B78" t="s">
+        <v>26</v>
+      </c>
+      <c r="C78" t="s">
+        <v>26</v>
+      </c>
+      <c r="D78" t="s">
+        <v>26</v>
+      </c>
+      <c r="E78" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F78" t="s">
+        <v>26</v>
+      </c>
+      <c r="G78" t="s">
+        <v>26</v>
+      </c>
+      <c r="H78" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I78" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="J78" s="2" t="s">
+      <c r="J78" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A79" s="4">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A79" s="3">
         <v>78</v>
       </c>
-      <c r="B79" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C79" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D79" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E79" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F79" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G79" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H79" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="I79" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J79" s="2" t="s">
+      <c r="B79" t="s">
+        <v>26</v>
+      </c>
+      <c r="C79" t="s">
+        <v>26</v>
+      </c>
+      <c r="D79" t="s">
+        <v>26</v>
+      </c>
+      <c r="E79" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F79" t="s">
+        <v>26</v>
+      </c>
+      <c r="G79" t="s">
+        <v>26</v>
+      </c>
+      <c r="H79" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I79" t="s">
+        <v>26</v>
+      </c>
+      <c r="J79" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A80" s="4">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A80" s="3">
         <v>79</v>
       </c>
-      <c r="B80" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C80" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D80" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E80" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F80" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G80" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H80" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="I80" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J80" s="2" t="s">
+      <c r="B80" t="s">
+        <v>26</v>
+      </c>
+      <c r="C80" t="s">
+        <v>26</v>
+      </c>
+      <c r="D80" t="s">
+        <v>26</v>
+      </c>
+      <c r="E80" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F80" t="s">
+        <v>26</v>
+      </c>
+      <c r="G80" t="s">
+        <v>26</v>
+      </c>
+      <c r="H80" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I80" t="s">
+        <v>26</v>
+      </c>
+      <c r="J80" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A81" s="4">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A81" s="3">
         <v>80</v>
       </c>
-      <c r="B81" s="2" t="s">
+      <c r="B81" t="s">
         <v>111</v>
       </c>
-      <c r="C81" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D81" s="2" t="s">
+      <c r="C81" t="s">
+        <v>62</v>
+      </c>
+      <c r="D81" t="s">
         <v>106</v>
       </c>
-      <c r="E81" s="4" t="s">
+      <c r="E81" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="F81" s="2" t="s">
+      <c r="F81" t="s">
         <v>110</v>
       </c>
-      <c r="G81" s="2" t="s">
+      <c r="G81" t="s">
         <v>109</v>
       </c>
-      <c r="H81" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="I81" s="2" t="s">
+      <c r="H81" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="I81" t="s">
         <v>108</v>
       </c>
-      <c r="J81" s="2" t="s">
+      <c r="J81" t="s">
         <v>112</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:I81">
-    <cfRule type="containsText" dxfId="4" priority="1" operator="containsText" text="GND">
+    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="GND">
       <formula>NOT(ISERROR(SEARCH("GND",B2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="2" operator="containsText" text="N/A">
+    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="N/A">
       <formula>NOT(ISERROR(SEARCH("N/A",B2)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/pin-assignments.xlsx
+++ b/pin-assignments.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\willi\Nextcloud\Documents\Projects\nixieclock\nixie-clock-ice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F08D2F7-D1AE-4C4A-991E-60D0769C94C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA37658F-302F-441D-9B22-ABE665986372}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{61DDA8EF-D3AB-45D9-ADB5-848A3329CB87}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="214">
   <si>
     <t>pico iCE pin</t>
   </si>
@@ -669,6 +669,15 @@
   </si>
   <si>
     <t>PX1125T boot select line.  Debug.</t>
+  </si>
+  <si>
+    <t>RP2040 / iCE 40 UART bridge.  Not used.</t>
+  </si>
+  <si>
+    <t>UART0 RX</t>
+  </si>
+  <si>
+    <t>UART0 TX</t>
   </si>
 </sst>
 </file>
@@ -1124,6 +1133,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection activeCell="A41" sqref="A41"/>
       <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
@@ -1131,12 +1141,12 @@
   <cols>
     <col min="1" max="1" width="12.62890625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.15625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.5234375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.7890625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="28" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.5234375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="32.89453125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="32.9453125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7890625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="21.1015625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="115.26171875" bestFit="1" customWidth="1"/>
   </cols>
@@ -2604,13 +2614,13 @@
         <v>159</v>
       </c>
       <c r="H46" s="3" t="s">
-        <v>163</v>
+        <v>212</v>
       </c>
       <c r="I46" s="6" t="s">
-        <v>160</v>
+        <v>26</v>
       </c>
       <c r="J46" t="s">
-        <v>161</v>
+        <v>211</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -2621,7 +2631,7 @@
         <v>23</v>
       </c>
       <c r="C47" t="s">
-        <v>57</v>
+        <v>27</v>
       </c>
       <c r="D47">
         <v>0</v>
@@ -2636,13 +2646,13 @@
         <v>164</v>
       </c>
       <c r="H47" s="3" t="s">
-        <v>57</v>
+        <v>163</v>
       </c>
       <c r="I47" t="s">
-        <v>26</v>
+        <v>160</v>
       </c>
       <c r="J47" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -2717,7 +2727,7 @@
         <v>27</v>
       </c>
       <c r="C50" t="s">
-        <v>64</v>
+        <v>11</v>
       </c>
       <c r="D50">
         <v>0</v>
@@ -2732,13 +2742,13 @@
         <v>76</v>
       </c>
       <c r="H50" s="3" t="s">
-        <v>169</v>
+        <v>213</v>
       </c>
       <c r="I50" t="s">
-        <v>166</v>
+        <v>26</v>
       </c>
       <c r="J50" t="s">
-        <v>167</v>
+        <v>211</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -2749,7 +2759,7 @@
         <v>26</v>
       </c>
       <c r="C51" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="D51">
         <v>0</v>
@@ -2764,13 +2774,13 @@
         <v>173</v>
       </c>
       <c r="H51" s="3" t="s">
-        <v>57</v>
+        <v>169</v>
       </c>
       <c r="I51" t="s">
-        <v>26</v>
+        <v>166</v>
       </c>
       <c r="J51" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.55000000000000004">

--- a/pin-assignments.xlsx
+++ b/pin-assignments.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\willi\Nextcloud\Documents\Projects\nixieclock\nixie-clock-ice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA37658F-302F-441D-9B22-ABE665986372}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{386EDB0A-660E-498F-BD76-9D2702B47A4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{61DDA8EF-D3AB-45D9-ADB5-848A3329CB87}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="215">
   <si>
     <t>pico iCE pin</t>
   </si>
@@ -623,9 +623,6 @@
     <t>HV_{CONTROL}</t>
   </si>
   <si>
-    <t>PWM 2B</t>
-  </si>
-  <si>
     <t>GPS_{TXD}</t>
   </si>
   <si>
@@ -678,6 +675,12 @@
   </si>
   <si>
     <t>UART0 TX</t>
+  </si>
+  <si>
+    <t>PWM 0B</t>
+  </si>
+  <si>
+    <t>GPIO 23</t>
   </si>
 </sst>
 </file>
@@ -2614,13 +2617,13 @@
         <v>159</v>
       </c>
       <c r="H46" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="I46" s="6" t="s">
         <v>26</v>
       </c>
       <c r="J46" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -2742,13 +2745,13 @@
         <v>76</v>
       </c>
       <c r="H50" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="I50" t="s">
         <v>26</v>
       </c>
       <c r="J50" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -3187,13 +3190,13 @@
         <v>190</v>
       </c>
       <c r="H64" s="3" t="s">
-        <v>11</v>
+        <v>213</v>
       </c>
       <c r="I64" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="J64" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -3216,13 +3219,13 @@
         <v>191</v>
       </c>
       <c r="H65" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I65" t="s">
         <v>195</v>
       </c>
-      <c r="I65" t="s">
-        <v>194</v>
-      </c>
       <c r="J65" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -3251,7 +3254,7 @@
         <v>193</v>
       </c>
       <c r="J66" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -3271,7 +3274,7 @@
         <v>26</v>
       </c>
       <c r="G67" t="s">
-        <v>189</v>
+        <v>214</v>
       </c>
       <c r="H67" s="3" t="s">
         <v>57</v>
@@ -3300,16 +3303,16 @@
         <v>26</v>
       </c>
       <c r="G68" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H68" s="3" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="I68" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="J68" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -3329,16 +3332,16 @@
         <v>26</v>
       </c>
       <c r="G69" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H69" s="3" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="I69" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="J69" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -3364,10 +3367,10 @@
         <v>57</v>
       </c>
       <c r="I70" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="J70" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -3387,16 +3390,16 @@
         <v>26</v>
       </c>
       <c r="G71" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H71" s="3" t="s">
         <v>27</v>
       </c>
       <c r="I71" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="J71" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.55000000000000004">

--- a/pin-assignments.xlsx
+++ b/pin-assignments.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\willi\Nextcloud\Documents\Projects\nixieclock\nixie-clock-ice\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Paul\Nextcloud\Documents\Projects\nixieclock\nixie-clock-ice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{386EDB0A-660E-498F-BD76-9D2702B47A4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1688AF15-6843-4DD3-B4A8-CDA61C484723}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{61DDA8EF-D3AB-45D9-ADB5-848A3329CB87}"/>
+    <workbookView xWindow="15360" yWindow="4284" windowWidth="25644" windowHeight="15588" xr2:uid="{61DDA8EF-D3AB-45D9-ADB5-848A3329CB87}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1134,27 +1134,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{048455D2-8E6B-4BC7-A693-16ADCA598B53}">
   <dimension ref="A1:J81"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="F1" activePane="topRight" state="frozen"/>
       <selection activeCell="A41" sqref="A41"/>
-      <selection pane="topRight"/>
+      <selection pane="topRight" activeCell="J49" sqref="J49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.62890625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.15625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.7890625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.77734375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="28" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="32.9453125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7890625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.1015625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="115.26171875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="33" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="115.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1186,7 +1186,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -1218,7 +1218,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -1250,7 +1250,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -1282,7 +1282,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -1314,7 +1314,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -1346,7 +1346,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -1378,7 +1378,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -1410,7 +1410,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -1442,7 +1442,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -1474,7 +1474,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -1506,7 +1506,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -1538,7 +1538,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -1570,7 +1570,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -1602,7 +1602,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -1634,7 +1634,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -1666,7 +1666,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <v>16</v>
       </c>
@@ -1698,7 +1698,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>17</v>
       </c>
@@ -1730,7 +1730,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <v>18</v>
       </c>
@@ -1762,7 +1762,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
         <v>19</v>
       </c>
@@ -1794,7 +1794,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <v>20</v>
       </c>
@@ -1826,7 +1826,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
         <v>21</v>
       </c>
@@ -1858,7 +1858,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
         <v>22</v>
       </c>
@@ -1890,7 +1890,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
         <v>23</v>
       </c>
@@ -1922,7 +1922,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
         <v>24</v>
       </c>
@@ -1954,7 +1954,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
         <v>25</v>
       </c>
@@ -1986,7 +1986,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
         <v>26</v>
       </c>
@@ -2018,7 +2018,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="3">
         <v>27</v>
       </c>
@@ -2050,7 +2050,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:10" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
         <v>28</v>
       </c>
@@ -2082,7 +2082,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="3">
         <v>29</v>
       </c>
@@ -2114,7 +2114,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="3">
         <v>30</v>
       </c>
@@ -2146,7 +2146,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="3">
         <v>31</v>
       </c>
@@ -2178,7 +2178,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="3">
         <v>32</v>
       </c>
@@ -2210,7 +2210,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" s="3">
         <v>33</v>
       </c>
@@ -2242,7 +2242,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" s="3">
         <v>34</v>
       </c>
@@ -2274,7 +2274,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" s="3">
         <v>35</v>
       </c>
@@ -2306,7 +2306,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" s="3">
         <v>36</v>
       </c>
@@ -2338,7 +2338,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" s="3">
         <v>37</v>
       </c>
@@ -2370,7 +2370,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" s="3">
         <v>38</v>
       </c>
@@ -2402,7 +2402,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" s="3">
         <v>39</v>
       </c>
@@ -2434,7 +2434,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" s="3">
         <v>40</v>
       </c>
@@ -2466,7 +2466,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" s="3">
         <v>41</v>
       </c>
@@ -2498,7 +2498,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" s="3">
         <v>42</v>
       </c>
@@ -2530,7 +2530,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" s="3">
         <v>43</v>
       </c>
@@ -2562,7 +2562,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" s="3">
         <v>44</v>
       </c>
@@ -2594,7 +2594,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46" s="3">
         <v>45</v>
       </c>
@@ -2626,7 +2626,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" s="3">
         <v>46</v>
       </c>
@@ -2658,7 +2658,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" s="3">
         <v>47</v>
       </c>
@@ -2684,13 +2684,13 @@
         <v>57</v>
       </c>
       <c r="I48" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="J48" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49" s="3">
         <v>48</v>
       </c>
@@ -2716,13 +2716,13 @@
         <v>57</v>
       </c>
       <c r="I49" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="J49" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50" s="3">
         <v>49</v>
       </c>
@@ -2754,7 +2754,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51" s="3">
         <v>50</v>
       </c>
@@ -2786,7 +2786,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52" s="3">
         <v>51</v>
       </c>
@@ -2818,7 +2818,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53" s="3">
         <v>52</v>
       </c>
@@ -2850,7 +2850,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54" s="3">
         <v>53</v>
       </c>
@@ -2882,7 +2882,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55" s="3">
         <v>54</v>
       </c>
@@ -2914,7 +2914,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56" s="3">
         <v>55</v>
       </c>
@@ -2946,7 +2946,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57" s="3">
         <v>56</v>
       </c>
@@ -2978,7 +2978,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58" s="3">
         <v>57</v>
       </c>
@@ -3010,7 +3010,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59" s="3">
         <v>58</v>
       </c>
@@ -3042,7 +3042,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A60" s="3">
         <v>59</v>
       </c>
@@ -3074,7 +3074,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A61" s="3">
         <v>60</v>
       </c>
@@ -3106,7 +3106,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A62" s="3">
         <v>61</v>
       </c>
@@ -3138,7 +3138,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A63" s="3">
         <v>62</v>
       </c>
@@ -3170,7 +3170,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A64" s="3">
         <v>63</v>
       </c>
@@ -3199,7 +3199,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A65" s="3">
         <v>64</v>
       </c>
@@ -3228,7 +3228,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A66" s="3">
         <v>65</v>
       </c>
@@ -3257,7 +3257,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A67" s="3">
         <v>66</v>
       </c>
@@ -3286,7 +3286,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A68" s="3">
         <v>67</v>
       </c>
@@ -3315,7 +3315,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A69" s="3">
         <v>68</v>
       </c>
@@ -3344,7 +3344,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A70" s="3">
         <v>69</v>
       </c>
@@ -3373,7 +3373,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A71" s="3">
         <v>70</v>
       </c>
@@ -3402,7 +3402,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A72" s="3">
         <v>71</v>
       </c>
@@ -3434,7 +3434,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A73" s="3">
         <v>72</v>
       </c>
@@ -3466,7 +3466,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A74" s="3">
         <v>73</v>
       </c>
@@ -3498,7 +3498,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A75" s="3">
         <v>74</v>
       </c>
@@ -3530,7 +3530,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A76" s="3">
         <v>75</v>
       </c>
@@ -3562,7 +3562,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A77" s="3">
         <v>76</v>
       </c>
@@ -3594,7 +3594,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A78" s="3">
         <v>77</v>
       </c>
@@ -3626,7 +3626,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A79" s="3">
         <v>78</v>
       </c>
@@ -3658,7 +3658,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A80" s="3">
         <v>79</v>
       </c>
@@ -3690,7 +3690,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A81" s="3">
         <v>80</v>
       </c>

--- a/pin-assignments.xlsx
+++ b/pin-assignments.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Paul\Nextcloud\Documents\Projects\nixieclock\nixie-clock-ice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1688AF15-6843-4DD3-B4A8-CDA61C484723}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBA24AA8-28A3-4871-A2B9-967B6027CB8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15360" yWindow="4284" windowWidth="25644" windowHeight="15588" xr2:uid="{61DDA8EF-D3AB-45D9-ADB5-848A3329CB87}"/>
+    <workbookView xWindow="4356" yWindow="6228" windowWidth="25656" windowHeight="15588" xr2:uid="{61DDA8EF-D3AB-45D9-ADB5-848A3329CB87}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -593,15 +593,9 @@
     <t>Analog input</t>
   </si>
   <si>
-    <t>HV_{MEASURE}</t>
-  </si>
-  <si>
     <t>brightness_control</t>
   </si>
   <si>
-    <t>1/101 voltage divided HV supply output.  Used for closed loop control of HV supply voltage level with HV_{CONTROL} line.</t>
-  </si>
-  <si>
     <t>Potentiometer for user control of brightness.</t>
   </si>
   <si>
@@ -620,9 +614,6 @@
     <t>GPS_{RSTN}</t>
   </si>
   <si>
-    <t>HV_{CONTROL}</t>
-  </si>
-  <si>
     <t>GPS_{TXD}</t>
   </si>
   <si>
@@ -653,9 +644,6 @@
     <t>PX1125T UART RX line</t>
   </si>
   <si>
-    <t>Low-pass filtered PWM signal for DAC adjustment of HV supply's feedback line.</t>
-  </si>
-  <si>
     <t>PX1125T reset line</t>
   </si>
   <si>
@@ -681,6 +669,18 @@
   </si>
   <si>
     <t>GPIO 23</t>
+  </si>
+  <si>
+    <t>MEASURE_{HV}</t>
+  </si>
+  <si>
+    <t>GATE_{HV}</t>
+  </si>
+  <si>
+    <t>Boost convertor gate PWM signal.</t>
+  </si>
+  <si>
+    <t>1/101 voltage divided HV supply output.  Used for closed loop control of HV supply voltage level with GATE_{HV} line.</t>
   </si>
 </sst>
 </file>
@@ -1134,10 +1134,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{048455D2-8E6B-4BC7-A693-16ADCA598B53}">
   <dimension ref="A1:J81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="F1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="A41" sqref="A41"/>
-      <selection pane="topRight" activeCell="J49" sqref="J49"/>
+      <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2617,13 +2617,13 @@
         <v>159</v>
       </c>
       <c r="H46" s="3" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="I46" s="6" t="s">
         <v>26</v>
       </c>
       <c r="J46" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.3">
@@ -2745,13 +2745,13 @@
         <v>76</v>
       </c>
       <c r="H50" s="3" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="I50" t="s">
         <v>26</v>
       </c>
       <c r="J50" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.3">
@@ -3068,10 +3068,10 @@
         <v>184</v>
       </c>
       <c r="I60" t="s">
-        <v>185</v>
+        <v>211</v>
       </c>
       <c r="J60" t="s">
-        <v>187</v>
+        <v>214</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.3">
@@ -3132,10 +3132,10 @@
         <v>184</v>
       </c>
       <c r="I62" t="s">
+        <v>185</v>
+      </c>
+      <c r="J62" t="s">
         <v>186</v>
-      </c>
-      <c r="J62" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.3">
@@ -3187,16 +3187,16 @@
         <v>26</v>
       </c>
       <c r="G64" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="H64" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="I64" t="s">
+        <v>212</v>
+      </c>
+      <c r="J64" t="s">
         <v>213</v>
-      </c>
-      <c r="I64" t="s">
-        <v>194</v>
-      </c>
-      <c r="J64" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.3">
@@ -3216,16 +3216,16 @@
         <v>26</v>
       </c>
       <c r="G65" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="H65" s="3" t="s">
         <v>11</v>
       </c>
       <c r="I65" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="J65" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.3">
@@ -3245,16 +3245,16 @@
         <v>26</v>
       </c>
       <c r="G66" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="H66" s="3" t="s">
         <v>27</v>
       </c>
       <c r="I66" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="J66" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.3">
@@ -3274,7 +3274,7 @@
         <v>26</v>
       </c>
       <c r="G67" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="H67" s="3" t="s">
         <v>57</v>
@@ -3303,16 +3303,16 @@
         <v>26</v>
       </c>
       <c r="G68" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="H68" s="3" t="s">
         <v>11</v>
       </c>
       <c r="I68" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="J68" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.3">
@@ -3332,16 +3332,16 @@
         <v>26</v>
       </c>
       <c r="G69" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="H69" s="3" t="s">
         <v>27</v>
       </c>
       <c r="I69" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="J69" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.3">
@@ -3361,16 +3361,16 @@
         <v>26</v>
       </c>
       <c r="G70" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="H70" s="3" t="s">
         <v>57</v>
       </c>
       <c r="I70" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="J70" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.3">
@@ -3390,16 +3390,16 @@
         <v>26</v>
       </c>
       <c r="G71" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="H71" s="3" t="s">
         <v>27</v>
       </c>
       <c r="I71" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="J71" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.3">

--- a/pin-assignments.xlsx
+++ b/pin-assignments.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Paul\Nextcloud\Documents\Projects\nixieclock\nixie-clock-ice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBA24AA8-28A3-4871-A2B9-967B6027CB8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96DD9E90-3AEE-40F6-93ED-D55A28374A63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4356" yWindow="6228" windowWidth="25656" windowHeight="15588" xr2:uid="{61DDA8EF-D3AB-45D9-ADB5-848A3329CB87}"/>
+    <workbookView xWindow="8604" yWindow="5700" windowWidth="25656" windowHeight="15588" xr2:uid="{61DDA8EF-D3AB-45D9-ADB5-848A3329CB87}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2044,10 +2044,10 @@
         <v>26</v>
       </c>
       <c r="I28" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J28" t="s">
-        <v>61</v>
+        <v>36</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -2076,10 +2076,10 @@
         <v>26</v>
       </c>
       <c r="I29" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>36</v>
+        <v>61</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">

--- a/pin-assignments.xlsx
+++ b/pin-assignments.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Paul\Nextcloud\Documents\Projects\nixieclock\nixie-clock-ice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96DD9E90-3AEE-40F6-93ED-D55A28374A63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EB4C951-C8C5-4D60-89F6-97AD8A88BA4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8604" yWindow="5700" windowWidth="25656" windowHeight="15588" xr2:uid="{61DDA8EF-D3AB-45D9-ADB5-848A3329CB87}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="46296" windowHeight="25416" xr2:uid="{61DDA8EF-D3AB-45D9-ADB5-848A3329CB87}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -149,36 +149,6 @@
     <t>PX1125T rising edge synchronized to UTC second when getting 3D position fix. The pulse duration is about 100msec at rate of 1 Hz.</t>
   </si>
   <si>
-    <t>least significant digit anode ADC0820 overflow bit, driven by TXB0108</t>
-  </si>
-  <si>
-    <t>least significant digit anode ADC0820 data 7 bit, driven by TXB0108</t>
-  </si>
-  <si>
-    <t>least significant digit anode ADC0820 data 6 bit, driven by TXB0108</t>
-  </si>
-  <si>
-    <t>least significant digit anode ADC0820 data 5 bit, driven by TXB0108</t>
-  </si>
-  <si>
-    <t>least significant digit anode ADC0820 data 4 bit, driven by TXB0108</t>
-  </si>
-  <si>
-    <t>least significant digit anode ADC0820 data 3 bit, driven by TXB0108</t>
-  </si>
-  <si>
-    <t>least significant digit anode ADC0820 data 2 bit, driven by TXB0108</t>
-  </si>
-  <si>
-    <t>least significant digit anode ADC0820 data 0 bit, driven by TXB0108</t>
-  </si>
-  <si>
-    <t>least significant digit anode ADC0820 data 1 bit, driven by TXB0108</t>
-  </si>
-  <si>
-    <t>least significant digit anode ADC0820 ~Write / Ready bit, driven by TXB0108</t>
-  </si>
-  <si>
     <t>Clock input</t>
   </si>
   <si>
@@ -197,9 +167,6 @@
     <t>LSD_{ADC_~{CS}}</t>
   </si>
   <si>
-    <t>least significant digit anode ADC0820 ~chip select bit, driven by TXB0108</t>
-  </si>
-  <si>
     <t>IOT_45a_G1</t>
   </si>
   <si>
@@ -443,18 +410,12 @@
     <t>LSD_{ADC_MODE}</t>
   </si>
   <si>
-    <t>least significant digit anode ADC0820 mode select bit, driven by TXB0108</t>
-  </si>
-  <si>
     <t>IOB_13b</t>
   </si>
   <si>
     <t>LSD_{ADC_~{INT}}</t>
   </si>
   <si>
-    <t>least significant digit anode ADC0820 ~interrupt bit, driven by TXB0108</t>
-  </si>
-  <si>
     <t>IOB_16a</t>
   </si>
   <si>
@@ -467,9 +428,6 @@
     <t>LSD_{ADC_~{RD}}</t>
   </si>
   <si>
-    <t>least significant digit anode ADC0820 ~read bit, driven by TXB0108</t>
-  </si>
-  <si>
     <t>IOB_20a</t>
   </si>
   <si>
@@ -681,6 +639,48 @@
   </si>
   <si>
     <t>1/101 voltage divided HV supply output.  Used for closed loop control of HV supply voltage level with GATE_{HV} line.</t>
+  </si>
+  <si>
+    <t>least significant digit anode ADC0820 overflow bit, driven by TXU0104</t>
+  </si>
+  <si>
+    <t>least significant digit anode ADC0820 data 7 bit, driven by TXU0104</t>
+  </si>
+  <si>
+    <t>least significant digit anode ADC0820 data 6 bit, driven by TXU0104</t>
+  </si>
+  <si>
+    <t>least significant digit anode ADC0820 data 5 bit, driven by TXU0104</t>
+  </si>
+  <si>
+    <t>least significant digit anode ADC0820 data 4 bit, driven by TXU0104</t>
+  </si>
+  <si>
+    <t>least significant digit anode ADC0820 ~chip select bit, driven by TXU0104</t>
+  </si>
+  <si>
+    <t>least significant digit anode ADC0820 data 2 bit, driven by TXU0104</t>
+  </si>
+  <si>
+    <t>least significant digit anode ADC0820 data 3 bit, driven by TXU0104</t>
+  </si>
+  <si>
+    <t>least significant digit anode ADC0820 ~read bit, driven by TXU0104</t>
+  </si>
+  <si>
+    <t>least significant digit anode ADC0820 mode select bit, driven by TXU0104</t>
+  </si>
+  <si>
+    <t>least significant digit anode ADC0820 ~interrupt bit, driven by TXU0104</t>
+  </si>
+  <si>
+    <t>least significant digit anode ADC0820 data 0 bit, driven by TXU0104</t>
+  </si>
+  <si>
+    <t>least significant digit anode ADC0820 data 1 bit, driven by TXU0104</t>
+  </si>
+  <si>
+    <t>least significant digit anode ADC0820 ~Write / Ready bit, driven by TXU0104</t>
   </si>
 </sst>
 </file>
@@ -1174,7 +1174,7 @@
         <v>2</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>6</v>
@@ -1194,13 +1194,13 @@
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="F2" t="s">
         <v>26</v>
@@ -1215,7 +1215,7 @@
         <v>26</v>
       </c>
       <c r="J2" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -1232,22 +1232,22 @@
         <v>1</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="F3">
         <v>39</v>
       </c>
       <c r="G3" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>11</v>
       </c>
       <c r="I3" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="J3" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -1258,13 +1258,13 @@
         <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="F4" t="s">
         <v>26</v>
@@ -1279,7 +1279,7 @@
         <v>26</v>
       </c>
       <c r="J4" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -1287,31 +1287,31 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="C5" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="D5" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="F5" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="G5" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="I5" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="J5" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -1319,31 +1319,31 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="C6" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="D6" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="F6" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="G6" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="J6" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
@@ -1351,31 +1351,31 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="C7" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="D7" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="F7" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="G7" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="J7" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
@@ -1383,31 +1383,31 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="C8" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="D8" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="F8" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="G8" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="I8" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="J8" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
@@ -1415,31 +1415,31 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="C9" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="D9" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="F9" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="G9" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="I9" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="J9" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
@@ -1471,7 +1471,7 @@
         <v>10</v>
       </c>
       <c r="J10" t="s">
-        <v>37</v>
+        <v>201</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
@@ -1503,7 +1503,7 @@
         <v>15</v>
       </c>
       <c r="J11" t="s">
-        <v>38</v>
+        <v>202</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
@@ -1535,7 +1535,7 @@
         <v>16</v>
       </c>
       <c r="J12" t="s">
-        <v>39</v>
+        <v>203</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
@@ -1567,7 +1567,7 @@
         <v>17</v>
       </c>
       <c r="J13" t="s">
-        <v>40</v>
+        <v>204</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
@@ -1599,7 +1599,7 @@
         <v>18</v>
       </c>
       <c r="J14" t="s">
-        <v>41</v>
+        <v>205</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
@@ -1616,7 +1616,7 @@
         <v>0</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="F15" t="s">
         <v>26</v>
@@ -1628,10 +1628,10 @@
         <v>26</v>
       </c>
       <c r="I15" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J15" t="s">
-        <v>53</v>
+        <v>206</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
@@ -1660,10 +1660,10 @@
         <v>26</v>
       </c>
       <c r="I16" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J16" t="s">
-        <v>42</v>
+        <v>207</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
@@ -1692,10 +1692,10 @@
         <v>26</v>
       </c>
       <c r="I17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J17" t="s">
-        <v>43</v>
+        <v>208</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
@@ -1706,28 +1706,28 @@
         <v>37</v>
       </c>
       <c r="C18" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="F18">
         <v>17</v>
       </c>
       <c r="G18" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="I18" t="s">
         <v>26</v>
       </c>
       <c r="J18" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
@@ -1738,28 +1738,28 @@
         <v>35</v>
       </c>
       <c r="C19" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F19">
         <v>24</v>
       </c>
       <c r="G19" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="I19" t="s">
         <v>26</v>
       </c>
       <c r="J19" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
@@ -1776,7 +1776,7 @@
         <v>1</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="F20" t="s">
         <v>26</v>
@@ -1788,10 +1788,10 @@
         <v>26</v>
       </c>
       <c r="I20" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="J20" t="s">
-        <v>143</v>
+        <v>209</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
@@ -1808,7 +1808,7 @@
         <v>1</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="F21" t="s">
         <v>26</v>
@@ -1820,10 +1820,10 @@
         <v>26</v>
       </c>
       <c r="I21" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="J21" t="s">
-        <v>135</v>
+        <v>210</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
@@ -1840,7 +1840,7 @@
         <v>1</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="F22" t="s">
         <v>26</v>
@@ -1855,7 +1855,7 @@
         <v>26</v>
       </c>
       <c r="J22" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
@@ -1872,7 +1872,7 @@
         <v>1</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="F23" t="s">
         <v>26</v>
@@ -1884,10 +1884,10 @@
         <v>26</v>
       </c>
       <c r="I23" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="J23" t="s">
-        <v>138</v>
+        <v>211</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
@@ -1898,13 +1898,13 @@
         <v>1</v>
       </c>
       <c r="C24" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="D24">
         <v>2</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="F24" t="s">
         <v>26</v>
@@ -1919,7 +1919,7 @@
         <v>26</v>
       </c>
       <c r="J24" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
@@ -1930,13 +1930,13 @@
         <v>1</v>
       </c>
       <c r="C25" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="D25">
         <v>2</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="F25" t="s">
         <v>26</v>
@@ -1951,7 +1951,7 @@
         <v>26</v>
       </c>
       <c r="J25" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
@@ -1959,31 +1959,31 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="C26" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="D26" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="F26" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="G26" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="I26" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="J26" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
@@ -1991,31 +1991,31 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="C27" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="D27" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="F27" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="G27" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="I27" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="J27" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
@@ -2079,7 +2079,7 @@
         <v>31</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
@@ -2111,7 +2111,7 @@
         <v>33</v>
       </c>
       <c r="J30" t="s">
-        <v>44</v>
+        <v>212</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
@@ -2143,7 +2143,7 @@
         <v>34</v>
       </c>
       <c r="J31" t="s">
-        <v>45</v>
+        <v>213</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
@@ -2175,7 +2175,7 @@
         <v>35</v>
       </c>
       <c r="J32" t="s">
-        <v>46</v>
+        <v>214</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
@@ -2192,7 +2192,7 @@
         <v>2</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="F33" t="s">
         <v>26</v>
@@ -2204,10 +2204,10 @@
         <v>26</v>
       </c>
       <c r="I33" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="J33" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.3">
@@ -2224,7 +2224,7 @@
         <v>2</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="F34" t="s">
         <v>26</v>
@@ -2236,10 +2236,10 @@
         <v>26</v>
       </c>
       <c r="I34" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="J34" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.3">
@@ -2256,7 +2256,7 @@
         <v>2</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="F35" t="s">
         <v>26</v>
@@ -2268,10 +2268,10 @@
         <v>26</v>
       </c>
       <c r="I35" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="J35" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.3">
@@ -2294,16 +2294,16 @@
         <v>25</v>
       </c>
       <c r="G36" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="I36" t="s">
         <v>26</v>
       </c>
       <c r="J36" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.3">
@@ -2326,7 +2326,7 @@
         <v>26</v>
       </c>
       <c r="G37" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="H37" s="3" t="s">
         <v>11</v>
@@ -2335,7 +2335,7 @@
         <v>26</v>
       </c>
       <c r="J37" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.3">
@@ -2358,7 +2358,7 @@
         <v>25</v>
       </c>
       <c r="G38" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="H38" s="3" t="s">
         <v>11</v>
@@ -2367,7 +2367,7 @@
         <v>26</v>
       </c>
       <c r="J38" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.3">
@@ -2375,31 +2375,31 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="C39" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="D39" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="F39" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="G39" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="H39" s="3" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="I39" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="J39" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.3">
@@ -2422,16 +2422,16 @@
         <v>37</v>
       </c>
       <c r="G40" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="H40" s="3" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="I40" t="s">
         <v>26</v>
       </c>
       <c r="J40" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.3">
@@ -2463,7 +2463,7 @@
         <v>26</v>
       </c>
       <c r="J41" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.3">
@@ -2480,22 +2480,22 @@
         <v>1</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="F42">
         <v>12</v>
       </c>
       <c r="G42" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="H42" s="3" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="I42" t="s">
         <v>26</v>
       </c>
       <c r="J42" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.3">
@@ -2506,28 +2506,28 @@
         <v>14</v>
       </c>
       <c r="C43" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="D43">
         <v>1</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="F43">
         <v>11</v>
       </c>
       <c r="G43" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="H43" s="3" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="I43" t="s">
         <v>26</v>
       </c>
       <c r="J43" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.3">
@@ -2544,22 +2544,22 @@
         <v>1</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="F44">
         <v>14</v>
       </c>
       <c r="G44" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="H44" s="3" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="I44" t="s">
         <v>26</v>
       </c>
       <c r="J44" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.3">
@@ -2570,28 +2570,28 @@
         <v>15</v>
       </c>
       <c r="C45" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="D45">
         <v>1</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="F45">
         <v>13</v>
       </c>
       <c r="G45" t="s">
+        <v>77</v>
+      </c>
+      <c r="H45" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="H45" s="3" t="s">
-        <v>99</v>
-      </c>
       <c r="I45" t="s">
         <v>26</v>
       </c>
       <c r="J45" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.3">
@@ -2608,22 +2608,22 @@
         <v>0</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="F46">
         <v>3</v>
       </c>
       <c r="G46" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
       <c r="H46" s="3" t="s">
-        <v>207</v>
+        <v>193</v>
       </c>
       <c r="I46" s="6" t="s">
         <v>26</v>
       </c>
       <c r="J46" t="s">
-        <v>206</v>
+        <v>192</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.3">
@@ -2640,22 +2640,22 @@
         <v>0</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="F47">
         <v>7</v>
       </c>
       <c r="G47" t="s">
-        <v>164</v>
+        <v>150</v>
       </c>
       <c r="H47" s="3" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
       <c r="I47" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="J47" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.3">
@@ -2672,22 +2672,22 @@
         <v>1</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
       <c r="F48">
         <v>5</v>
       </c>
       <c r="G48" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
       <c r="H48" s="3" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="I48" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
       <c r="J48" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.3">
@@ -2704,22 +2704,22 @@
         <v>1</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="F49">
         <v>9</v>
       </c>
       <c r="G49" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="H49" s="3" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="I49" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="J49" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.3">
@@ -2736,22 +2736,22 @@
         <v>0</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>168</v>
+        <v>154</v>
       </c>
       <c r="F50">
         <v>2</v>
       </c>
       <c r="G50" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="H50" s="3" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="I50" t="s">
         <v>26</v>
       </c>
       <c r="J50" t="s">
-        <v>206</v>
+        <v>192</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.3">
@@ -2762,28 +2762,28 @@
         <v>26</v>
       </c>
       <c r="C51" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="D51">
         <v>0</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
       <c r="F51">
         <v>6</v>
       </c>
       <c r="G51" t="s">
-        <v>173</v>
+        <v>159</v>
       </c>
       <c r="H51" s="3" t="s">
-        <v>169</v>
+        <v>155</v>
       </c>
       <c r="I51" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
       <c r="J51" t="s">
-        <v>167</v>
+        <v>153</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.3">
@@ -2794,28 +2794,28 @@
         <v>21</v>
       </c>
       <c r="C52" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="D52">
         <v>1</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>172</v>
+        <v>158</v>
       </c>
       <c r="F52">
         <v>4</v>
       </c>
       <c r="G52" t="s">
-        <v>171</v>
+        <v>157</v>
       </c>
       <c r="H52" s="3" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="I52" t="s">
         <v>26</v>
       </c>
       <c r="J52" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.3">
@@ -2826,28 +2826,28 @@
         <v>20</v>
       </c>
       <c r="C53" t="s">
-        <v>157</v>
+        <v>143</v>
       </c>
       <c r="D53">
         <v>1</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
       <c r="F53">
         <v>8</v>
       </c>
       <c r="G53" t="s">
-        <v>156</v>
+        <v>142</v>
       </c>
       <c r="H53" s="3" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="I53" t="s">
-        <v>153</v>
+        <v>139</v>
       </c>
       <c r="J53" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.3">
@@ -2855,31 +2855,31 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="C54" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="D54" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="F54" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="G54" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="H54" s="3" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="I54" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="J54" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.3">
@@ -2887,31 +2887,31 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="C55" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="D55" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="F55" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="G55" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="H55" s="3" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="I55" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="J55" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.3">
@@ -2919,31 +2919,31 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="C56" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="D56" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="F56" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="G56" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="H56" s="3" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="I56" s="6" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="J56" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.3">
@@ -2951,31 +2951,31 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="C57" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="D57" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="F57" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="G57" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="H57" s="3" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="I57" s="6" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="J57" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.3">
@@ -2992,13 +2992,13 @@
         <v>1</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
       <c r="F58">
         <v>38</v>
       </c>
       <c r="G58" t="s">
-        <v>183</v>
+        <v>169</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>11</v>
@@ -3007,7 +3007,7 @@
         <v>26</v>
       </c>
       <c r="J58" t="s">
-        <v>175</v>
+        <v>161</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.3">
@@ -3018,28 +3018,28 @@
         <v>40</v>
       </c>
       <c r="C59" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="D59">
         <v>0</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="F59">
         <v>18</v>
       </c>
       <c r="G59" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="H59" s="3" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="I59" t="s">
         <v>26</v>
       </c>
       <c r="J59" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.3">
@@ -3062,16 +3062,16 @@
         <v>40</v>
       </c>
       <c r="G60" t="s">
-        <v>181</v>
+        <v>167</v>
       </c>
       <c r="H60" s="3" t="s">
-        <v>184</v>
+        <v>170</v>
       </c>
       <c r="I60" t="s">
-        <v>211</v>
+        <v>197</v>
       </c>
       <c r="J60" t="s">
-        <v>214</v>
+        <v>200</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.3">
@@ -3082,28 +3082,28 @@
         <v>41</v>
       </c>
       <c r="C61" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="D61">
         <v>0</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="F61">
         <v>16</v>
       </c>
       <c r="G61" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="H61" s="3" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="I61" t="s">
         <v>26</v>
       </c>
       <c r="J61" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.3">
@@ -3126,16 +3126,16 @@
         <v>41</v>
       </c>
       <c r="G62" t="s">
-        <v>182</v>
+        <v>168</v>
       </c>
       <c r="H62" s="3" t="s">
-        <v>184</v>
+        <v>170</v>
       </c>
       <c r="I62" t="s">
-        <v>185</v>
+        <v>171</v>
       </c>
       <c r="J62" t="s">
-        <v>186</v>
+        <v>172</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.3">
@@ -3146,28 +3146,28 @@
         <v>39</v>
       </c>
       <c r="C63" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="D63">
         <v>0</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="F63">
         <v>15</v>
       </c>
       <c r="G63" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="H63" s="3" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="I63" t="s">
         <v>26</v>
       </c>
       <c r="J63" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.3">
@@ -3187,16 +3187,16 @@
         <v>26</v>
       </c>
       <c r="G64" t="s">
-        <v>188</v>
+        <v>174</v>
       </c>
       <c r="H64" s="3" t="s">
-        <v>209</v>
+        <v>195</v>
       </c>
       <c r="I64" t="s">
-        <v>212</v>
+        <v>198</v>
       </c>
       <c r="J64" t="s">
-        <v>213</v>
+        <v>199</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.3">
@@ -3216,16 +3216,16 @@
         <v>26</v>
       </c>
       <c r="G65" t="s">
-        <v>189</v>
+        <v>175</v>
       </c>
       <c r="H65" s="3" t="s">
         <v>11</v>
       </c>
       <c r="I65" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
       <c r="J65" t="s">
-        <v>200</v>
+        <v>186</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.3">
@@ -3245,16 +3245,16 @@
         <v>26</v>
       </c>
       <c r="G66" t="s">
-        <v>190</v>
+        <v>176</v>
       </c>
       <c r="H66" s="3" t="s">
         <v>27</v>
       </c>
       <c r="I66" t="s">
-        <v>191</v>
+        <v>177</v>
       </c>
       <c r="J66" t="s">
-        <v>202</v>
+        <v>188</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.3">
@@ -3274,16 +3274,16 @@
         <v>26</v>
       </c>
       <c r="G67" t="s">
-        <v>210</v>
+        <v>196</v>
       </c>
       <c r="H67" s="3" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="I67" t="s">
         <v>26</v>
       </c>
       <c r="J67" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.3">
@@ -3303,16 +3303,16 @@
         <v>26</v>
       </c>
       <c r="G68" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="H68" s="3" t="s">
         <v>11</v>
       </c>
       <c r="I68" t="s">
-        <v>196</v>
+        <v>182</v>
       </c>
       <c r="J68" t="s">
-        <v>203</v>
+        <v>189</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.3">
@@ -3332,16 +3332,16 @@
         <v>26</v>
       </c>
       <c r="G69" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
       <c r="H69" s="3" t="s">
         <v>27</v>
       </c>
       <c r="I69" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="J69" t="s">
-        <v>201</v>
+        <v>187</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.3">
@@ -3361,16 +3361,16 @@
         <v>26</v>
       </c>
       <c r="G70" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
       <c r="H70" s="3" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="I70" t="s">
-        <v>197</v>
+        <v>183</v>
       </c>
       <c r="J70" t="s">
-        <v>205</v>
+        <v>191</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.3">
@@ -3390,16 +3390,16 @@
         <v>26</v>
       </c>
       <c r="G71" t="s">
-        <v>198</v>
+        <v>184</v>
       </c>
       <c r="H71" s="3" t="s">
         <v>27</v>
       </c>
       <c r="I71" t="s">
-        <v>199</v>
+        <v>185</v>
       </c>
       <c r="J71" t="s">
-        <v>204</v>
+        <v>190</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.3">
@@ -3407,31 +3407,31 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="C72" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="D72" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="F72" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="G72" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="H72" s="3" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="I72" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="J72" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.3">
@@ -3439,31 +3439,31 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="C73" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="D73" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="F73" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="G73" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="H73" s="3" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="I73" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="J73" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.3">
@@ -3471,31 +3471,31 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="C74" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="D74" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="F74" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="G74" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="H74" s="3" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="I74" s="6" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="J74" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.3">
@@ -3503,31 +3503,31 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="C75" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="D75" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="F75" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="G75" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="H75" s="3" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="I75" s="6" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="J75" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.3">
@@ -3535,31 +3535,31 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="C76" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="D76" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="F76" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="G76" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="H76" s="3" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="I76" s="6" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="J76" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.3">
@@ -3588,10 +3588,10 @@
         <v>26</v>
       </c>
       <c r="I77" s="6" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
       <c r="J77" t="s">
-        <v>180</v>
+        <v>166</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.3">
@@ -3620,10 +3620,10 @@
         <v>26</v>
       </c>
       <c r="I78" s="6" t="s">
-        <v>177</v>
+        <v>163</v>
       </c>
       <c r="J78" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.3">
@@ -3655,7 +3655,7 @@
         <v>26</v>
       </c>
       <c r="J79" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.3">
@@ -3687,7 +3687,7 @@
         <v>26</v>
       </c>
       <c r="J80" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.3">
@@ -3695,31 +3695,31 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="C81" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="D81" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="F81" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="G81" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="H81" s="3" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="I81" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="J81" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>

--- a/pin-assignments.xlsx
+++ b/pin-assignments.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Paul\Nextcloud\Documents\Projects\nixieclock\nixie-clock-ice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EB4C951-C8C5-4D60-89F6-97AD8A88BA4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00BF6CDD-FE27-41B9-9DFF-88BC5D328A50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="46296" windowHeight="25416" xr2:uid="{61DDA8EF-D3AB-45D9-ADB5-848A3329CB87}"/>
+    <workbookView xWindow="8448" yWindow="6468" windowWidth="25656" windowHeight="15588" xr2:uid="{61DDA8EF-D3AB-45D9-ADB5-848A3329CB87}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -696,7 +696,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -715,8 +715,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor theme="6" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor theme="6" tint="0.59999389629810485"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -733,11 +745,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="6" tint="0.39997558519241921"/>
+      </left>
+      <right style="thin">
+        <color theme="6" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="6" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="6" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -748,11 +775,69 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="13">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -820,14 +905,14 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B8DDC3D1-B6B2-4773-BAE3-53756E759D9B}" name="Table1" displayName="Table1" ref="A1:J81" totalsRowShown="0">
   <autoFilter ref="A1:J81" xr:uid="{B8DDC3D1-B6B2-4773-BAE3-53756E759D9B}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{973649EE-E7D7-444A-B6E8-0C168ED11786}" name="pico iCE pin" dataDxfId="4"/>
+    <tableColumn id="1" xr3:uid="{973649EE-E7D7-444A-B6E8-0C168ED11786}" name="pico iCE pin" dataDxfId="12"/>
     <tableColumn id="2" xr3:uid="{F5653507-11B6-4725-89A0-0D52D7FE48D4}" name="iCE 40 pin"/>
     <tableColumn id="3" xr3:uid="{62EAA3B7-CDFA-4331-AA91-B5A19A4C9C69}" name="iCE 40 config"/>
     <tableColumn id="4" xr3:uid="{EE7FDF9B-97D2-4ADF-9BB7-2B25579CE898}" name="iCE 40 bank"/>
-    <tableColumn id="5" xr3:uid="{65394EF3-41D0-4EA1-B6F6-F3D44BD72055}" name="iCE 40 ID" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{65394EF3-41D0-4EA1-B6F6-F3D44BD72055}" name="iCE 40 ID" dataDxfId="11"/>
     <tableColumn id="6" xr3:uid="{CEFAB0DD-E9AA-433F-8309-BC2DA89CD8A4}" name="RP2040 pin"/>
     <tableColumn id="11" xr3:uid="{0788CCF3-2736-4162-BDED-CC62F0E680D7}" name="RP2040 ID"/>
-    <tableColumn id="8" xr3:uid="{2D3BF530-0CE5-4C3C-A254-B6F38E7E69AF}" name="RP2040 config" dataDxfId="2"/>
+    <tableColumn id="8" xr3:uid="{2D3BF530-0CE5-4C3C-A254-B6F38E7E69AF}" name="RP2040 config" dataDxfId="10"/>
     <tableColumn id="9" xr3:uid="{8B749DA2-6FA0-44A0-9521-2C507833EE62}" name="net"/>
     <tableColumn id="10" xr3:uid="{AB262432-1C8B-4560-A17E-3D18C1343AA3}" name="description"/>
   </tableColumns>
@@ -1450,7 +1535,7 @@
         <v>28</v>
       </c>
       <c r="C10" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -1467,11 +1552,11 @@
       <c r="H10" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="I10" t="s">
-        <v>10</v>
-      </c>
-      <c r="J10" t="s">
-        <v>201</v>
+      <c r="I10" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="J10" s="9" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
@@ -1499,11 +1584,11 @@
       <c r="H11" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="I11" t="s">
-        <v>15</v>
-      </c>
-      <c r="J11" t="s">
-        <v>202</v>
+      <c r="I11" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="J11" s="8" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
@@ -1514,7 +1599,7 @@
         <v>32</v>
       </c>
       <c r="C12" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -1531,11 +1616,11 @@
       <c r="H12" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="I12" t="s">
-        <v>16</v>
-      </c>
-      <c r="J12" t="s">
-        <v>203</v>
+      <c r="I12" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="J12" s="8" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
@@ -1563,10 +1648,10 @@
       <c r="H13" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="I13" t="s">
+      <c r="I13" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="J13" t="s">
+      <c r="J13" s="9" t="s">
         <v>204</v>
       </c>
     </row>
@@ -1578,7 +1663,7 @@
         <v>36</v>
       </c>
       <c r="C14" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -1595,11 +1680,11 @@
       <c r="H14" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="I14" t="s">
-        <v>18</v>
-      </c>
-      <c r="J14" t="s">
-        <v>205</v>
+      <c r="I14" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="J14" s="9" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
@@ -1610,7 +1695,7 @@
         <v>38</v>
       </c>
       <c r="C15" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -1627,11 +1712,11 @@
       <c r="H15" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="I15" t="s">
-        <v>42</v>
-      </c>
-      <c r="J15" t="s">
-        <v>206</v>
+      <c r="I15" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="J15" s="8" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
@@ -1659,11 +1744,11 @@
       <c r="H16" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="I16" t="s">
-        <v>20</v>
-      </c>
-      <c r="J16" t="s">
-        <v>207</v>
+      <c r="I16" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J16" s="8" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
@@ -1691,11 +1776,11 @@
       <c r="H17" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="I17" t="s">
-        <v>19</v>
-      </c>
-      <c r="J17" t="s">
-        <v>208</v>
+      <c r="I17" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J17" s="9" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
@@ -1770,7 +1855,7 @@
         <v>11</v>
       </c>
       <c r="C20" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="D20">
         <v>1</v>
@@ -1787,11 +1872,11 @@
       <c r="H20" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="I20" t="s">
-        <v>129</v>
-      </c>
-      <c r="J20" t="s">
-        <v>209</v>
+      <c r="I20" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="J20" s="9" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
@@ -1802,7 +1887,7 @@
         <v>6</v>
       </c>
       <c r="C21" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="D21">
         <v>1</v>
@@ -1819,11 +1904,11 @@
       <c r="H21" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="I21" t="s">
-        <v>123</v>
-      </c>
-      <c r="J21" t="s">
-        <v>210</v>
+      <c r="I21" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="J21" s="9" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
@@ -1883,11 +1968,11 @@
       <c r="H23" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="I23" t="s">
-        <v>125</v>
-      </c>
-      <c r="J23" t="s">
-        <v>211</v>
+      <c r="I23" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="J23" s="8" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
@@ -2107,11 +2192,11 @@
       <c r="H30" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="I30" t="s">
-        <v>33</v>
-      </c>
-      <c r="J30" t="s">
-        <v>212</v>
+      <c r="I30" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="J30" s="9" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
@@ -2139,11 +2224,11 @@
       <c r="H31" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="I31" t="s">
-        <v>34</v>
-      </c>
-      <c r="J31" t="s">
-        <v>213</v>
+      <c r="I31" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="J31" s="8" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
@@ -2154,7 +2239,7 @@
         <v>48</v>
       </c>
       <c r="C32" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="D32">
         <v>2</v>
@@ -2172,10 +2257,10 @@
         <v>26</v>
       </c>
       <c r="I32" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="J32" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
@@ -3723,12 +3808,44 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B2:I81">
-    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="GND">
+  <conditionalFormatting sqref="B2:I9 B10:H17 B18:I19 B20:H21 B22:I22 B23:H23 B24:I29 B30:H31 B32:I81">
+    <cfRule type="containsText" dxfId="9" priority="31" operator="containsText" text="GND">
       <formula>NOT(ISERROR(SEARCH("GND",B2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="N/A">
+    <cfRule type="containsText" dxfId="8" priority="32" operator="containsText" text="N/A">
       <formula>NOT(ISERROR(SEARCH("N/A",B2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I10:I17">
+    <cfRule type="containsText" dxfId="7" priority="3" operator="containsText" text="GND">
+      <formula>NOT(ISERROR(SEARCH("GND",I10)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="6" priority="4" operator="containsText" text="N/A">
+      <formula>NOT(ISERROR(SEARCH("N/A",I10)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I20:I21">
+    <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="GND">
+      <formula>NOT(ISERROR(SEARCH("GND",I20)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="4" priority="2" operator="containsText" text="N/A">
+      <formula>NOT(ISERROR(SEARCH("N/A",I20)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I23">
+    <cfRule type="containsText" dxfId="3" priority="21" operator="containsText" text="GND">
+      <formula>NOT(ISERROR(SEARCH("GND",I23)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="2" priority="22" operator="containsText" text="N/A">
+      <formula>NOT(ISERROR(SEARCH("N/A",I23)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I30:I31">
+    <cfRule type="containsText" dxfId="1" priority="9" operator="containsText" text="GND">
+      <formula>NOT(ISERROR(SEARCH("GND",I30)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="0" priority="10" operator="containsText" text="N/A">
+      <formula>NOT(ISERROR(SEARCH("N/A",I30)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
